--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
@@ -230,9 +230,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -266,14 +266,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,22 +287,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -310,67 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -386,8 +309,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,9 +341,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +534,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,7 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,19 +582,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,43 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,31 +666,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,8 +754,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +808,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -792,209 +848,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,80 +1194,77 @@
           <cell r="D4" t="str">
             <v>楚天龙</v>
           </cell>
-          <cell r="E4">
-            <v>44523</v>
-          </cell>
-          <cell r="F4">
-            <v>26.2</v>
-          </cell>
-          <cell r="G4">
-            <v>200</v>
-          </cell>
-          <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>5245</v>
-          </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
         </row>
         <row r="4">
-          <cell r="Q4">
-            <v>0.232558139534884</v>
+          <cell r="F4">
+            <v>44523</v>
+          </cell>
+          <cell r="G4">
+            <v>26.2</v>
+          </cell>
+          <cell r="H4">
+            <v>200</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>5245</v>
+          </cell>
+          <cell r="L4">
+            <v>26.5</v>
+          </cell>
+          <cell r="M4">
+            <v>25.21</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="S4">
+          <cell r="R4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="T4">
             <v>0</v>
           </cell>
-          <cell r="T4">
+          <cell r="U4">
             <v>44526</v>
           </cell>
-          <cell r="U4">
+          <cell r="V4">
             <v>24.89</v>
           </cell>
-          <cell r="V4">
+          <cell r="W4">
             <v>100</v>
           </cell>
-          <cell r="W4">
+          <cell r="X4">
             <v>5</v>
           </cell>
-          <cell r="X4">
+          <cell r="Y4">
             <v>2.489</v>
           </cell>
-          <cell r="Y4">
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4" t="e">
+          <cell r="AF4" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。
-3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1276,42 +1273,42 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="S5">
+          <cell r="T5">
             <v>0</v>
           </cell>
-          <cell r="T5">
+          <cell r="U5">
             <v>44531</v>
           </cell>
-          <cell r="U5">
+          <cell r="V5">
             <v>27.7</v>
           </cell>
-          <cell r="V5">
+          <cell r="W5">
             <v>100</v>
           </cell>
-          <cell r="W5">
+          <cell r="X5">
             <v>5</v>
           </cell>
-          <cell r="X5">
+          <cell r="Y5">
             <v>2.77</v>
           </cell>
-          <cell r="Y5">
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5" t="e">
+          <cell r="AF5" t="e">
             <v>#N/A</v>
           </cell>
         </row>
@@ -1328,39 +1325,42 @@
           <cell r="D6" t="str">
             <v>同仁堂</v>
           </cell>
-          <cell r="E6">
+          <cell r="E6" t="str">
+            <v>中药</v>
+          </cell>
+          <cell r="F6">
             <v>44523</v>
           </cell>
-          <cell r="F6">
+          <cell r="G6">
             <v>33.73</v>
           </cell>
-          <cell r="G6">
+          <cell r="H6">
             <v>100</v>
           </cell>
-          <cell r="H6">
+          <cell r="I6">
             <v>5</v>
           </cell>
-          <cell r="I6">
+          <cell r="J6">
             <v>0.06746</v>
           </cell>
-          <cell r="J6">
+          <cell r="K6">
             <v>3378.06746</v>
           </cell>
-          <cell r="K6">
+          <cell r="L6">
             <v>35.36</v>
           </cell>
-          <cell r="L6">
+          <cell r="M6">
             <v>33.1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="Q6">
+          <cell r="R6">
             <v>0.721238938053099</v>
           </cell>
-          <cell r="R6">
+          <cell r="S6">
             <v>34.7</v>
           </cell>
-          <cell r="S6">
+          <cell r="T6">
             <v>-86.9325400000006</v>
           </cell>
         </row>
@@ -1377,39 +1377,41 @@
           <cell r="D7" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E7">
-            <v>44522</v>
-          </cell>
-          <cell r="F7">
-            <v>32.7</v>
-          </cell>
-          <cell r="G7">
-            <v>100</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="J7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="K7">
-            <v>33.9</v>
-          </cell>
-          <cell r="L7">
-            <v>32.49</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="Q7">
+          <cell r="F7">
+            <v>44522</v>
+          </cell>
+          <cell r="G7">
+            <v>32.7</v>
+          </cell>
+          <cell r="H7">
+            <v>100</v>
+          </cell>
+          <cell r="I7">
+            <v>5</v>
+          </cell>
+          <cell r="J7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="L7">
+            <v>33.9</v>
+          </cell>
+          <cell r="M7">
+            <v>32.49</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
             <v>0.851063829787233</v>
           </cell>
-          <cell r="R7">
+          <cell r="S7">
             <v>30.89</v>
           </cell>
-          <cell r="S7">
+          <cell r="T7">
             <v>0</v>
           </cell>
         </row>
@@ -1426,45 +1428,43 @@
           <cell r="D8" t="str">
             <v>明德生物</v>
           </cell>
-          <cell r="E8">
+          <cell r="E8" t="str">
+            <v>医疗器械</v>
+          </cell>
+          <cell r="F8">
             <v>44526</v>
           </cell>
-          <cell r="F8">
+          <cell r="G8">
             <v>72.07</v>
           </cell>
-          <cell r="G8">
+          <cell r="H8">
             <v>100</v>
           </cell>
-          <cell r="H8">
+          <cell r="I8">
             <v>5</v>
           </cell>
-          <cell r="I8">
+          <cell r="J8">
             <v>0</v>
           </cell>
-          <cell r="J8">
+          <cell r="K8">
             <v>7212</v>
           </cell>
-          <cell r="K8">
+          <cell r="L8">
             <v>74.5</v>
           </cell>
-          <cell r="L8">
+          <cell r="M8">
             <v>70.4</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="Q8">
+          <cell r="R8">
             <v>0.592682926829271</v>
           </cell>
-          <cell r="R8">
+          <cell r="S8">
             <v>67.53</v>
           </cell>
-          <cell r="S8">
+          <cell r="T8">
             <v>463.999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="9">
@@ -1480,77 +1480,76 @@
           <cell r="D9" t="str">
             <v>百龙创园</v>
           </cell>
-          <cell r="E9">
-            <v>44524</v>
-          </cell>
-          <cell r="F9">
-            <v>30.54</v>
-          </cell>
-          <cell r="G9">
-            <v>100</v>
-          </cell>
-          <cell r="H9">
-            <v>5</v>
-          </cell>
-          <cell r="I9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="J9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="Q9">
-            <v>0.129496402877698</v>
+          <cell r="F9">
+            <v>44524</v>
+          </cell>
+          <cell r="G9">
+            <v>30.54</v>
+          </cell>
+          <cell r="H9">
+            <v>100</v>
+          </cell>
+          <cell r="I9">
+            <v>5</v>
+          </cell>
+          <cell r="J9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="L9">
+            <v>30.72</v>
+          </cell>
+          <cell r="M9">
+            <v>29.33</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>3006.985</v>
-          </cell>
-          <cell r="Z9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
+          <cell r="R9">
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AE9" t="e">
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>44525</v>
+          </cell>
+          <cell r="V9">
+            <v>30.15</v>
+          </cell>
+          <cell r="W9">
+            <v>100</v>
+          </cell>
+          <cell r="X9">
+            <v>5</v>
+          </cell>
+          <cell r="Y9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9">
+            <v>-52.0760799999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1566,77 +1565,76 @@
           <cell r="D10" t="str">
             <v>万盛股份</v>
           </cell>
-          <cell r="E10">
-            <v>44530</v>
-          </cell>
-          <cell r="F10">
-            <v>29.81</v>
-          </cell>
-          <cell r="G10">
-            <v>100</v>
-          </cell>
-          <cell r="H10">
-            <v>5</v>
-          </cell>
-          <cell r="I10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="J10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
         </row>
         <row r="10">
-          <cell r="Q10">
-            <v>0.337748344370862</v>
+          <cell r="F10">
+            <v>44530</v>
+          </cell>
+          <cell r="G10">
+            <v>29.81</v>
+          </cell>
+          <cell r="H10">
+            <v>100</v>
+          </cell>
+          <cell r="I10">
+            <v>5</v>
+          </cell>
+          <cell r="J10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="L10">
+            <v>30.32</v>
+          </cell>
+          <cell r="M10">
+            <v>28.81</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>2775.217</v>
-          </cell>
-          <cell r="Z10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AA10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
+          <cell r="R10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AE10">
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>44533</v>
+          </cell>
+          <cell r="V10">
+            <v>27.83</v>
+          </cell>
+          <cell r="W10">
+            <v>100</v>
+          </cell>
+          <cell r="X10">
+            <v>5</v>
+          </cell>
+          <cell r="Y10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.217</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10">
+            <v>-210.84262</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10">
             <v>-5.46810273405137</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1652,81 +1650,77 @@
           <cell r="D11" t="str">
             <v>双星新材</v>
           </cell>
-          <cell r="E11">
-            <v>44536</v>
-          </cell>
-          <cell r="F11">
-            <v>28.37</v>
-          </cell>
-          <cell r="G11">
-            <v>100</v>
-          </cell>
-          <cell r="H11">
-            <v>5</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>2842</v>
-          </cell>
-          <cell r="K11">
-            <v>29.7</v>
-          </cell>
-          <cell r="L11">
-            <v>27.69</v>
-          </cell>
         </row>
         <row r="11">
-          <cell r="Q11">
-            <v>0.661691542288557</v>
-          </cell>
-          <cell r="R11">
-            <v>26.31</v>
-          </cell>
-          <cell r="S11">
+          <cell r="F11">
+            <v>44536</v>
+          </cell>
+          <cell r="G11">
+            <v>28.37</v>
+          </cell>
+          <cell r="H11">
+            <v>100</v>
+          </cell>
+          <cell r="I11">
+            <v>5</v>
+          </cell>
+          <cell r="J11">
             <v>0</v>
           </cell>
-          <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="Z11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AA11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AC11">
-            <v>-179.67</v>
+          <cell r="K11">
+            <v>2842</v>
+          </cell>
+          <cell r="L11">
+            <v>29.7</v>
+          </cell>
+          <cell r="M11">
+            <v>27.69</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AE11">
+          <cell r="R11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="S11">
+            <v>26.31</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>44537</v>
+          </cell>
+          <cell r="V11">
+            <v>26.7</v>
+          </cell>
+          <cell r="W11">
+            <v>100</v>
+          </cell>
+          <cell r="X11">
+            <v>5</v>
+          </cell>
+          <cell r="Y11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11">
+            <v>-179.67</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11">
             <v>-5.11798958014098</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>1.宁可错过，不要根据临时计划入场。
-2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
-3.作出出场决定是使用止损线倒逼出场。
-</v>
           </cell>
         </row>
         <row r="12">
@@ -1742,49 +1736,52 @@
           <cell r="D12" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E12">
+          <cell r="E12" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F12">
             <v>44540</v>
           </cell>
-          <cell r="F12">
+          <cell r="G12">
             <v>37.73</v>
           </cell>
-          <cell r="G12">
+          <cell r="H12">
             <v>200</v>
           </cell>
-          <cell r="H12">
+          <cell r="I12">
             <v>5</v>
           </cell>
-          <cell r="I12">
+          <cell r="J12">
             <v>0.15092</v>
           </cell>
-          <cell r="J12">
+          <cell r="K12">
             <v>7551.15092</v>
           </cell>
-          <cell r="K12">
+          <cell r="L12">
             <v>38.32</v>
           </cell>
-          <cell r="L12">
+          <cell r="M12">
             <v>37.15</v>
           </cell>
-          <cell r="M12">
+          <cell r="N12">
             <v>40.11</v>
           </cell>
-          <cell r="N12">
+          <cell r="O12">
             <v>30.85</v>
           </cell>
-          <cell r="O12">
+          <cell r="P12">
             <v>9.26</v>
           </cell>
-          <cell r="P12">
+          <cell r="Q12">
             <v>33.58</v>
           </cell>
-          <cell r="Q12">
+          <cell r="R12">
             <v>0.504273504273506</v>
           </cell>
-          <cell r="R12">
+          <cell r="S12">
             <v>33.38</v>
           </cell>
-          <cell r="S12">
+          <cell r="T12">
             <v>880.150919999999</v>
           </cell>
         </row>
@@ -1801,49 +1798,52 @@
           <cell r="D13" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E13">
+          <cell r="E13" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F13">
             <v>44540</v>
           </cell>
-          <cell r="F13">
+          <cell r="G13">
             <v>37.99</v>
           </cell>
-          <cell r="G13">
+          <cell r="H13">
             <v>200</v>
           </cell>
-          <cell r="H13">
+          <cell r="I13">
             <v>5</v>
           </cell>
-          <cell r="I13">
+          <cell r="J13">
             <v>0.15196</v>
           </cell>
-          <cell r="J13">
+          <cell r="K13">
             <v>7603.15196</v>
           </cell>
-          <cell r="K13">
+          <cell r="L13">
             <v>38.32</v>
           </cell>
-          <cell r="L13">
+          <cell r="M13">
             <v>37.15</v>
           </cell>
-          <cell r="M13">
+          <cell r="N13">
             <v>40.11</v>
           </cell>
-          <cell r="N13">
+          <cell r="O13">
             <v>30.85</v>
           </cell>
-          <cell r="O13">
+          <cell r="P13">
             <v>9.26</v>
           </cell>
-          <cell r="P13">
+          <cell r="Q13">
             <v>33.58</v>
           </cell>
-          <cell r="Q13">
+          <cell r="R13">
             <v>0.28205128205128</v>
           </cell>
-          <cell r="R13">
+          <cell r="S13">
             <v>33.38</v>
           </cell>
-          <cell r="S13">
+          <cell r="T13">
             <v>932.15196</v>
           </cell>
         </row>
@@ -1860,49 +1860,52 @@
           <cell r="D14" t="str">
             <v>振华科技</v>
           </cell>
-          <cell r="E14">
+          <cell r="E14" t="str">
+            <v>国防军工</v>
+          </cell>
+          <cell r="F14">
             <v>44540</v>
           </cell>
-          <cell r="F14">
+          <cell r="G14">
             <v>115.97</v>
           </cell>
-          <cell r="G14">
+          <cell r="H14">
             <v>100</v>
           </cell>
-          <cell r="H14">
+          <cell r="I14">
             <v>5</v>
           </cell>
-          <cell r="I14">
+          <cell r="J14">
             <v>0</v>
           </cell>
-          <cell r="J14">
+          <cell r="K14">
             <v>11602</v>
           </cell>
-          <cell r="K14">
+          <cell r="L14">
             <v>118</v>
           </cell>
-          <cell r="L14">
+          <cell r="M14">
             <v>113.58</v>
           </cell>
-          <cell r="M14">
+          <cell r="N14">
             <v>128.61</v>
           </cell>
-          <cell r="N14">
+          <cell r="O14">
             <v>102.72</v>
           </cell>
-          <cell r="O14">
+          <cell r="P14">
             <v>25.89</v>
           </cell>
-          <cell r="P14">
+          <cell r="Q14">
             <v>50.45</v>
           </cell>
-          <cell r="Q14">
+          <cell r="R14">
             <v>0.459276018099548</v>
           </cell>
-          <cell r="R14">
+          <cell r="S14">
             <v>110.4</v>
           </cell>
-          <cell r="S14">
+          <cell r="T14">
             <v>566.999999999999</v>
           </cell>
         </row>
@@ -1919,49 +1922,52 @@
           <cell r="D15" t="str">
             <v>明泰铝业</v>
           </cell>
-          <cell r="E15">
+          <cell r="E15" t="str">
+            <v>工业金属</v>
+          </cell>
+          <cell r="F15">
             <v>44540</v>
           </cell>
-          <cell r="F15">
+          <cell r="G15">
             <v>39.15</v>
           </cell>
-          <cell r="G15">
+          <cell r="H15">
             <v>100</v>
           </cell>
-          <cell r="H15">
+          <cell r="I15">
             <v>5</v>
           </cell>
-          <cell r="I15">
+          <cell r="J15">
             <v>0.0783</v>
           </cell>
-          <cell r="J15">
+          <cell r="K15">
             <v>3920.0783</v>
           </cell>
-          <cell r="K15">
+          <cell r="L15">
             <v>39.16</v>
           </cell>
-          <cell r="L15">
+          <cell r="M15">
             <v>37.55</v>
           </cell>
-          <cell r="M15">
+          <cell r="N15">
             <v>41.07</v>
           </cell>
-          <cell r="N15">
+          <cell r="O15">
             <v>32.21</v>
           </cell>
-          <cell r="O15">
+          <cell r="P15">
             <v>8.86</v>
           </cell>
-          <cell r="P15">
+          <cell r="Q15">
             <v>14.76</v>
           </cell>
-          <cell r="Q15">
+          <cell r="R15">
             <v>0.00621118012422237</v>
           </cell>
-          <cell r="R15">
+          <cell r="S15">
             <v>35.91</v>
           </cell>
-          <cell r="S15">
+          <cell r="T15">
             <v>334.0783</v>
           </cell>
         </row>
@@ -1978,49 +1984,52 @@
           <cell r="D16" t="str">
             <v>石英股份</v>
           </cell>
-          <cell r="E16">
+          <cell r="E16" t="str">
+            <v> 非金属材料</v>
+          </cell>
+          <cell r="F16">
             <v>44540</v>
           </cell>
-          <cell r="F16">
+          <cell r="G16">
             <v>64.3</v>
           </cell>
-          <cell r="G16">
+          <cell r="H16">
             <v>100</v>
           </cell>
-          <cell r="H16">
+          <cell r="I16">
             <v>5</v>
           </cell>
-          <cell r="I16">
+          <cell r="J16">
             <v>0.1286</v>
           </cell>
-          <cell r="J16">
+          <cell r="K16">
             <v>6435.1286</v>
           </cell>
-          <cell r="K16">
+          <cell r="L16">
             <v>64.47</v>
           </cell>
-          <cell r="L16">
+          <cell r="M16">
             <v>59.34</v>
           </cell>
-          <cell r="M16">
+          <cell r="N16">
             <v>69.25</v>
           </cell>
-          <cell r="N16">
+          <cell r="O16">
             <v>52.2</v>
           </cell>
-          <cell r="O16">
+          <cell r="P16">
             <v>17.05</v>
           </cell>
-          <cell r="P16">
+          <cell r="Q16">
             <v>100.55</v>
           </cell>
-          <cell r="Q16">
+          <cell r="R16">
             <v>0.0331384015594546</v>
           </cell>
-          <cell r="R16">
+          <cell r="S16">
             <v>58.51</v>
           </cell>
-          <cell r="S16">
+          <cell r="T16">
             <v>589.1286</v>
           </cell>
         </row>
@@ -2325,11 +2334,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2651,7 +2660,7 @@
         <v>-0.0208</v>
       </c>
       <c r="K6" s="15">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE))/VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE)</f>
         <v>-0.00474260584633955</v>
       </c>
       <c r="L6" s="16">
@@ -2703,7 +2712,7 @@
         <v>110.4</v>
       </c>
       <c r="AG6" s="3">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,7,FALSE)</f>
         <v>-5.56999999999999</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
@@ -229,10 +229,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -273,16 +273,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,39 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,23 +311,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,16 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +343,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +365,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,31 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,19 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +648,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,43 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +755,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -784,30 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -822,155 +848,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,26 +979,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1035,9 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,6 +1051,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,77 +1200,90 @@
           <cell r="D4" t="str">
             <v>楚天龙</v>
           </cell>
+          <cell r="E4">
+            <v>44523</v>
+          </cell>
+          <cell r="F4">
+            <v>26.2</v>
+          </cell>
+          <cell r="G4">
+            <v>200</v>
+          </cell>
+          <cell r="H4">
+            <v>5</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>5245</v>
+          </cell>
+          <cell r="K4">
+            <v>26.5</v>
+          </cell>
+          <cell r="L4">
+            <v>25.21</v>
+          </cell>
+          <cell r="M4">
+            <v>28.15</v>
+          </cell>
+          <cell r="N4">
+            <v>21.87</v>
+          </cell>
+          <cell r="O4">
+            <v>6.28</v>
+          </cell>
+          <cell r="P4">
+            <v>150.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.232558139534884</v>
+          </cell>
         </row>
         <row r="4">
-          <cell r="F4">
-            <v>44523</v>
-          </cell>
-          <cell r="G4">
-            <v>26.2</v>
-          </cell>
-          <cell r="H4">
-            <v>200</v>
-          </cell>
-          <cell r="I4">
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>44526</v>
+          </cell>
+          <cell r="U4">
+            <v>24.89</v>
+          </cell>
+          <cell r="V4">
+            <v>100</v>
+          </cell>
+          <cell r="W4">
             <v>5</v>
           </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="K4">
-            <v>5245</v>
-          </cell>
-          <cell r="L4">
-            <v>26.5</v>
-          </cell>
-          <cell r="M4">
-            <v>25.21</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="R4">
-            <v>0.232558139534884</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="T4">
-            <v>0</v>
-          </cell>
-          <cell r="U4">
-            <v>44526</v>
-          </cell>
-          <cell r="V4">
-            <v>24.89</v>
-          </cell>
-          <cell r="W4">
-            <v>100</v>
-          </cell>
           <cell r="X4">
-            <v>5</v>
+            <v>2.489</v>
           </cell>
           <cell r="Y4">
-            <v>2.489</v>
+            <v>2481.511</v>
           </cell>
           <cell r="Z4">
-            <v>2481.511</v>
+            <v>27.43</v>
           </cell>
           <cell r="AA4">
-            <v>27.43</v>
+            <v>24.74</v>
           </cell>
           <cell r="AB4">
-            <v>24.74</v>
+            <v>0.0557620817843874</v>
           </cell>
           <cell r="AC4">
-            <v>0.0557620817843874</v>
+            <v>-140.989</v>
           </cell>
           <cell r="AD4">
-            <v>-140.989</v>
+            <v>-1.25900000000001</v>
           </cell>
           <cell r="AE4">
-            <v>-1.25900000000001</v>
-          </cell>
-          <cell r="AF4" t="e">
-            <v>#DIV/0!</v>
+            <v>-0.20859872611465</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1273,43 +1292,43 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="S5">
+            <v>0</v>
+          </cell>
           <cell r="T5">
-            <v>0</v>
+            <v>44531</v>
           </cell>
           <cell r="U5">
-            <v>44531</v>
+            <v>27.7</v>
           </cell>
           <cell r="V5">
-            <v>27.7</v>
+            <v>100</v>
           </cell>
           <cell r="W5">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="X5">
-            <v>5</v>
+            <v>2.77</v>
           </cell>
           <cell r="Y5">
-            <v>2.77</v>
+            <v>2762.23</v>
           </cell>
           <cell r="Z5">
-            <v>2762.23</v>
+            <v>28.7</v>
           </cell>
           <cell r="AA5">
-            <v>28.7</v>
+            <v>27.5</v>
           </cell>
           <cell r="AB5">
-            <v>27.5</v>
+            <v>0.166666666666666</v>
           </cell>
           <cell r="AC5">
-            <v>0.166666666666666</v>
-          </cell>
-          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AF5" t="e">
-            <v>#N/A</v>
+          <cell r="AE5">
+            <v>0.238853503184713</v>
           </cell>
         </row>
         <row r="6">
@@ -1325,43 +1344,63 @@
           <cell r="D6" t="str">
             <v>同仁堂</v>
           </cell>
-          <cell r="E6" t="str">
-            <v>中药</v>
+          <cell r="E6">
+            <v>44523</v>
           </cell>
           <cell r="F6">
-            <v>44523</v>
+            <v>33.73</v>
           </cell>
           <cell r="G6">
-            <v>33.73</v>
+            <v>100</v>
           </cell>
           <cell r="H6">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="I6">
-            <v>5</v>
+            <v>0.06746</v>
           </cell>
           <cell r="J6">
-            <v>0.06746</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="K6">
-            <v>3378.06746</v>
+            <v>35.36</v>
           </cell>
           <cell r="L6">
-            <v>35.36</v>
+            <v>33.1</v>
           </cell>
           <cell r="M6">
-            <v>33.1</v>
+            <v>35.48</v>
+          </cell>
+          <cell r="N6">
+            <v>31.36</v>
+          </cell>
+          <cell r="O6">
+            <v>4.12</v>
+          </cell>
+          <cell r="P6">
+            <v>37.41</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="R6">
+            <v>34.7</v>
+          </cell>
+          <cell r="S6">
+            <v>-86.9325400000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="R6">
-            <v>0.721238938053099</v>
-          </cell>
-          <cell r="S6">
-            <v>34.7</v>
-          </cell>
-          <cell r="T6">
-            <v>-86.9325400000006</v>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AC6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -1377,42 +1416,85 @@
           <cell r="D7" t="str">
             <v>新化股份</v>
           </cell>
+          <cell r="E7">
+            <v>44522</v>
+          </cell>
+          <cell r="F7">
+            <v>32.7</v>
+          </cell>
+          <cell r="G7">
+            <v>100</v>
+          </cell>
+          <cell r="H7">
+            <v>5</v>
+          </cell>
+          <cell r="I7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="J7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>33.9</v>
+          </cell>
+          <cell r="L7">
+            <v>32.49</v>
+          </cell>
+          <cell r="M7">
+            <v>36.21</v>
+          </cell>
+          <cell r="N7">
+            <v>27.35</v>
+          </cell>
+          <cell r="O7">
+            <v>8.86</v>
+          </cell>
+          <cell r="P7">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>44539</v>
+          </cell>
+          <cell r="U7">
+            <v>37.75</v>
+          </cell>
+          <cell r="V7">
+            <v>100</v>
+          </cell>
+          <cell r="W7">
+            <v>5</v>
+          </cell>
+          <cell r="X7">
+            <v>3.775</v>
+          </cell>
+          <cell r="Y7">
+            <v>3766.225</v>
+          </cell>
+          <cell r="Z7">
+            <v>38.83</v>
+          </cell>
+          <cell r="AA7">
+            <v>36.3</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.57312252964427</v>
+          </cell>
+          <cell r="AC7">
+            <v>491.1596</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>44522</v>
-          </cell>
-          <cell r="G7">
-            <v>32.7</v>
-          </cell>
-          <cell r="H7">
-            <v>100</v>
-          </cell>
-          <cell r="I7">
-            <v>5</v>
-          </cell>
-          <cell r="J7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="K7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="L7">
-            <v>33.9</v>
-          </cell>
-          <cell r="M7">
-            <v>32.49</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="R7">
-            <v>0.851063829787233</v>
-          </cell>
-          <cell r="S7">
-            <v>30.89</v>
-          </cell>
-          <cell r="T7">
-            <v>0</v>
+          <cell r="AE7">
+            <v>0.569977426636569</v>
           </cell>
         </row>
         <row r="8">
@@ -1428,43 +1510,55 @@
           <cell r="D8" t="str">
             <v>明德生物</v>
           </cell>
-          <cell r="E8" t="str">
-            <v>医疗器械</v>
+          <cell r="E8">
+            <v>44526</v>
           </cell>
           <cell r="F8">
-            <v>44526</v>
+            <v>72.07</v>
           </cell>
           <cell r="G8">
-            <v>72.07</v>
+            <v>100</v>
           </cell>
           <cell r="H8">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="I8">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="J8">
-            <v>0</v>
+            <v>7212</v>
           </cell>
           <cell r="K8">
-            <v>7212</v>
+            <v>74.5</v>
           </cell>
           <cell r="L8">
-            <v>74.5</v>
+            <v>70.4</v>
           </cell>
           <cell r="M8">
-            <v>70.4</v>
+            <v>75.02</v>
+          </cell>
+          <cell r="N8">
+            <v>62.33</v>
+          </cell>
+          <cell r="O8">
+            <v>12.69</v>
+          </cell>
+          <cell r="P8">
+            <v>6.49</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="R8">
+            <v>67.53</v>
+          </cell>
+          <cell r="S8">
+            <v>463.999999999999</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="R8">
-            <v>0.592682926829271</v>
-          </cell>
-          <cell r="S8">
-            <v>67.53</v>
-          </cell>
-          <cell r="T8">
-            <v>463.999999999999</v>
+          <cell r="AF8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="9">
@@ -1480,76 +1574,87 @@
           <cell r="D9" t="str">
             <v>百龙创园</v>
           </cell>
+          <cell r="E9">
+            <v>44524</v>
+          </cell>
+          <cell r="F9">
+            <v>30.54</v>
+          </cell>
+          <cell r="G9">
+            <v>100</v>
+          </cell>
+          <cell r="H9">
+            <v>5</v>
+          </cell>
+          <cell r="I9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="J9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>30.72</v>
+          </cell>
+          <cell r="L9">
+            <v>29.33</v>
+          </cell>
+          <cell r="M9">
+            <v>32.43</v>
+          </cell>
+          <cell r="N9">
+            <v>26.16</v>
+          </cell>
+          <cell r="O9">
+            <v>6.27</v>
+          </cell>
+          <cell r="P9">
+            <v>38.46</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.129496402877698</v>
+          </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>44524</v>
-          </cell>
-          <cell r="G9">
-            <v>30.54</v>
-          </cell>
-          <cell r="H9">
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>44525</v>
+          </cell>
+          <cell r="U9">
+            <v>30.15</v>
+          </cell>
+          <cell r="V9">
             <v>100</v>
           </cell>
-          <cell r="I9">
+          <cell r="W9">
             <v>5</v>
           </cell>
-          <cell r="J9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="K9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="L9">
-            <v>30.72</v>
-          </cell>
-          <cell r="M9">
-            <v>29.33</v>
+          <cell r="X9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Y9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="Z9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AC9">
+            <v>-52.0760799999998</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="R9">
-            <v>0.129496402877698</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9">
-            <v>44525</v>
-          </cell>
-          <cell r="V9">
-            <v>30.15</v>
-          </cell>
-          <cell r="W9">
-            <v>100</v>
-          </cell>
-          <cell r="X9">
-            <v>5</v>
-          </cell>
-          <cell r="Y9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Z9">
-            <v>3006.985</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AB9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AD9">
-            <v>-52.0760799999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AF9" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE9">
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AF9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1565,76 +1670,87 @@
           <cell r="D10" t="str">
             <v>万盛股份</v>
           </cell>
+          <cell r="E10">
+            <v>44530</v>
+          </cell>
+          <cell r="F10">
+            <v>29.81</v>
+          </cell>
+          <cell r="G10">
+            <v>100</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="J10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>30.32</v>
+          </cell>
+          <cell r="L10">
+            <v>28.81</v>
+          </cell>
+          <cell r="M10">
+            <v>31.18</v>
+          </cell>
+          <cell r="N10">
+            <v>21.1</v>
+          </cell>
+          <cell r="O10">
+            <v>10.08</v>
+          </cell>
+          <cell r="P10">
+            <v>17.95</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.337748344370862</v>
+          </cell>
         </row>
         <row r="10">
-          <cell r="F10">
-            <v>44530</v>
-          </cell>
-          <cell r="G10">
-            <v>29.81</v>
-          </cell>
-          <cell r="H10">
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>44533</v>
+          </cell>
+          <cell r="U10">
+            <v>27.83</v>
+          </cell>
+          <cell r="V10">
             <v>100</v>
           </cell>
-          <cell r="I10">
+          <cell r="W10">
             <v>5</v>
           </cell>
-          <cell r="J10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="K10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="L10">
-            <v>30.32</v>
-          </cell>
-          <cell r="M10">
-            <v>28.81</v>
+          <cell r="X10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Y10">
+            <v>2775.217</v>
+          </cell>
+          <cell r="Z10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AA10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AC10">
+            <v>-210.84262</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="R10">
-            <v>0.337748344370862</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>44533</v>
-          </cell>
-          <cell r="V10">
-            <v>27.83</v>
-          </cell>
-          <cell r="W10">
-            <v>100</v>
-          </cell>
-          <cell r="X10">
-            <v>5</v>
-          </cell>
-          <cell r="Y10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Z10">
-            <v>2775.217</v>
-          </cell>
-          <cell r="AA10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AB10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AD10">
-            <v>-210.84262</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AF10">
-            <v>-5.46810273405137</v>
+          <cell r="AE10">
+            <v>-0.196428571428572</v>
+          </cell>
+          <cell r="AF10" t="str">
+            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1650,77 +1766,91 @@
           <cell r="D11" t="str">
             <v>双星新材</v>
           </cell>
+          <cell r="E11">
+            <v>44536</v>
+          </cell>
+          <cell r="F11">
+            <v>28.37</v>
+          </cell>
+          <cell r="G11">
+            <v>100</v>
+          </cell>
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>2842</v>
+          </cell>
+          <cell r="K11">
+            <v>29.7</v>
+          </cell>
+          <cell r="L11">
+            <v>27.69</v>
+          </cell>
+          <cell r="M11">
+            <v>30.41</v>
+          </cell>
+          <cell r="N11">
+            <v>22.76</v>
+          </cell>
+          <cell r="O11">
+            <v>7.65</v>
+          </cell>
+          <cell r="P11">
+            <v>25.15</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="R11">
+            <v>26.31</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>44537</v>
+          </cell>
+          <cell r="U11">
+            <v>26.7</v>
+          </cell>
+          <cell r="V11">
+            <v>100</v>
+          </cell>
+          <cell r="W11">
+            <v>5</v>
+          </cell>
+          <cell r="X11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Y11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="Z11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AA11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AC11">
+            <v>-179.67</v>
+          </cell>
         </row>
         <row r="11">
-          <cell r="F11">
-            <v>44536</v>
-          </cell>
-          <cell r="G11">
-            <v>28.37</v>
-          </cell>
-          <cell r="H11">
-            <v>100</v>
-          </cell>
-          <cell r="I11">
-            <v>5</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>2842</v>
-          </cell>
-          <cell r="L11">
-            <v>29.7</v>
-          </cell>
-          <cell r="M11">
-            <v>27.69</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="R11">
-            <v>0.661691542288557</v>
-          </cell>
-          <cell r="S11">
-            <v>26.31</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>44537</v>
-          </cell>
-          <cell r="V11">
-            <v>26.7</v>
-          </cell>
-          <cell r="W11">
-            <v>100</v>
-          </cell>
-          <cell r="X11">
-            <v>5</v>
-          </cell>
-          <cell r="Y11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Z11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="AA11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AB11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AD11">
-            <v>-179.67</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11">
-            <v>-5.11798958014098</v>
+          <cell r="AE11">
+            <v>-0.218300653594771</v>
+          </cell>
+          <cell r="AF11" t="str">
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
           </cell>
         </row>
         <row r="12">
@@ -1736,52 +1866,49 @@
           <cell r="D12" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E12" t="str">
-            <v>化学制品</v>
+          <cell r="E12">
+            <v>44540</v>
           </cell>
           <cell r="F12">
-            <v>44540</v>
+            <v>37.73</v>
           </cell>
           <cell r="G12">
-            <v>37.73</v>
+            <v>200</v>
           </cell>
           <cell r="H12">
-            <v>200</v>
+            <v>5</v>
           </cell>
           <cell r="I12">
-            <v>5</v>
+            <v>0.15092</v>
           </cell>
           <cell r="J12">
-            <v>0.15092</v>
+            <v>7551.15092</v>
           </cell>
           <cell r="K12">
-            <v>7551.15092</v>
+            <v>38.32</v>
           </cell>
           <cell r="L12">
-            <v>38.32</v>
+            <v>37.15</v>
           </cell>
           <cell r="M12">
-            <v>37.15</v>
+            <v>40.11</v>
           </cell>
           <cell r="N12">
-            <v>40.11</v>
+            <v>30.85</v>
           </cell>
           <cell r="O12">
-            <v>30.85</v>
+            <v>9.26</v>
           </cell>
           <cell r="P12">
-            <v>9.26</v>
+            <v>33.58</v>
           </cell>
           <cell r="Q12">
-            <v>33.58</v>
+            <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>0.504273504273506</v>
+            <v>33.38</v>
           </cell>
           <cell r="S12">
-            <v>33.38</v>
-          </cell>
-          <cell r="T12">
             <v>880.150919999999</v>
           </cell>
         </row>
@@ -1798,52 +1925,49 @@
           <cell r="D13" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E13" t="str">
-            <v>化学制品</v>
+          <cell r="E13">
+            <v>44540</v>
           </cell>
           <cell r="F13">
-            <v>44540</v>
+            <v>37.99</v>
           </cell>
           <cell r="G13">
-            <v>37.99</v>
+            <v>200</v>
           </cell>
           <cell r="H13">
-            <v>200</v>
+            <v>5</v>
           </cell>
           <cell r="I13">
-            <v>5</v>
+            <v>0.15196</v>
           </cell>
           <cell r="J13">
-            <v>0.15196</v>
+            <v>7603.15196</v>
           </cell>
           <cell r="K13">
-            <v>7603.15196</v>
+            <v>38.32</v>
           </cell>
           <cell r="L13">
-            <v>38.32</v>
+            <v>37.15</v>
           </cell>
           <cell r="M13">
-            <v>37.15</v>
+            <v>40.11</v>
           </cell>
           <cell r="N13">
-            <v>40.11</v>
+            <v>30.85</v>
           </cell>
           <cell r="O13">
-            <v>30.85</v>
+            <v>9.26</v>
           </cell>
           <cell r="P13">
-            <v>9.26</v>
+            <v>33.58</v>
           </cell>
           <cell r="Q13">
-            <v>33.58</v>
+            <v>0.28205128205128</v>
           </cell>
           <cell r="R13">
-            <v>0.28205128205128</v>
+            <v>33.38</v>
           </cell>
           <cell r="S13">
-            <v>33.38</v>
-          </cell>
-          <cell r="T13">
             <v>932.15196</v>
           </cell>
         </row>
@@ -1860,52 +1984,49 @@
           <cell r="D14" t="str">
             <v>振华科技</v>
           </cell>
-          <cell r="E14" t="str">
-            <v>国防军工</v>
+          <cell r="E14">
+            <v>44540</v>
           </cell>
           <cell r="F14">
-            <v>44540</v>
+            <v>115.97</v>
           </cell>
           <cell r="G14">
-            <v>115.97</v>
+            <v>100</v>
           </cell>
           <cell r="H14">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="I14">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="J14">
-            <v>0</v>
+            <v>11602</v>
           </cell>
           <cell r="K14">
-            <v>11602</v>
+            <v>118</v>
           </cell>
           <cell r="L14">
-            <v>118</v>
+            <v>113.58</v>
           </cell>
           <cell r="M14">
-            <v>113.58</v>
+            <v>128.61</v>
           </cell>
           <cell r="N14">
-            <v>128.61</v>
+            <v>102.72</v>
           </cell>
           <cell r="O14">
-            <v>102.72</v>
+            <v>25.89</v>
           </cell>
           <cell r="P14">
-            <v>25.89</v>
+            <v>50.45</v>
           </cell>
           <cell r="Q14">
-            <v>50.45</v>
+            <v>0.459276018099548</v>
           </cell>
           <cell r="R14">
-            <v>0.459276018099548</v>
+            <v>110.4</v>
           </cell>
           <cell r="S14">
-            <v>110.4</v>
-          </cell>
-          <cell r="T14">
             <v>566.999999999999</v>
           </cell>
         </row>
@@ -1922,52 +2043,49 @@
           <cell r="D15" t="str">
             <v>明泰铝业</v>
           </cell>
-          <cell r="E15" t="str">
-            <v>工业金属</v>
+          <cell r="E15">
+            <v>44540</v>
           </cell>
           <cell r="F15">
-            <v>44540</v>
+            <v>39.15</v>
           </cell>
           <cell r="G15">
-            <v>39.15</v>
+            <v>100</v>
           </cell>
           <cell r="H15">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="I15">
-            <v>5</v>
+            <v>0.0783</v>
           </cell>
           <cell r="J15">
-            <v>0.0783</v>
+            <v>3920.0783</v>
           </cell>
           <cell r="K15">
-            <v>3920.0783</v>
+            <v>39.16</v>
           </cell>
           <cell r="L15">
-            <v>39.16</v>
+            <v>37.55</v>
           </cell>
           <cell r="M15">
-            <v>37.55</v>
+            <v>41.07</v>
           </cell>
           <cell r="N15">
-            <v>41.07</v>
+            <v>32.21</v>
           </cell>
           <cell r="O15">
-            <v>32.21</v>
+            <v>8.86</v>
           </cell>
           <cell r="P15">
-            <v>8.86</v>
+            <v>14.76</v>
           </cell>
           <cell r="Q15">
-            <v>14.76</v>
+            <v>0.00621118012422237</v>
           </cell>
           <cell r="R15">
-            <v>0.00621118012422237</v>
+            <v>35.91</v>
           </cell>
           <cell r="S15">
-            <v>35.91</v>
-          </cell>
-          <cell r="T15">
             <v>334.0783</v>
           </cell>
         </row>
@@ -1984,52 +2102,49 @@
           <cell r="D16" t="str">
             <v>石英股份</v>
           </cell>
-          <cell r="E16" t="str">
-            <v> 非金属材料</v>
+          <cell r="E16">
+            <v>44540</v>
           </cell>
           <cell r="F16">
-            <v>44540</v>
+            <v>64.3</v>
           </cell>
           <cell r="G16">
-            <v>64.3</v>
+            <v>100</v>
           </cell>
           <cell r="H16">
-            <v>100</v>
+            <v>5</v>
           </cell>
           <cell r="I16">
-            <v>5</v>
+            <v>0.1286</v>
           </cell>
           <cell r="J16">
-            <v>0.1286</v>
+            <v>6435.1286</v>
           </cell>
           <cell r="K16">
-            <v>6435.1286</v>
+            <v>64.47</v>
           </cell>
           <cell r="L16">
-            <v>64.47</v>
+            <v>59.34</v>
           </cell>
           <cell r="M16">
-            <v>59.34</v>
+            <v>69.25</v>
           </cell>
           <cell r="N16">
-            <v>69.25</v>
+            <v>52.2</v>
           </cell>
           <cell r="O16">
-            <v>52.2</v>
+            <v>17.05</v>
           </cell>
           <cell r="P16">
-            <v>17.05</v>
+            <v>100.55</v>
           </cell>
           <cell r="Q16">
-            <v>100.55</v>
+            <v>0.0331384015594546</v>
           </cell>
           <cell r="R16">
-            <v>0.0331384015594546</v>
+            <v>58.51</v>
           </cell>
           <cell r="S16">
-            <v>58.51</v>
-          </cell>
-          <cell r="T16">
             <v>589.1286</v>
           </cell>
         </row>
@@ -2334,11 +2449,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2350,7 +2465,8 @@
     <col min="5" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.96428571428571" customWidth="1"/>
-    <col min="10" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="20.3839285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
     <col min="12" max="12" width="22.1696428571429" style="2" customWidth="1"/>
     <col min="13" max="14" width="30.0625" customWidth="1"/>
     <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
@@ -2385,38 +2501,38 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="5"/>
       <c r="L1" s="11"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="24" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="31" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2430,34 +2546,34 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="5"/>
       <c r="L2" s="11"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="32" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="35"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="4"/>
@@ -2469,34 +2585,34 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="5"/>
       <c r="L3" s="11"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="22" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="35"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="37"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="4"/>
@@ -2527,67 +2643,67 @@
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="28" t="s">
+      <c r="U4" s="28"/>
+      <c r="V4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="30" t="s">
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AA4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="30" t="s">
+      <c r="AC4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AD4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="35"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="37"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="4"/>
@@ -2600,33 +2716,33 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="35"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="37"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="7">
@@ -2656,23 +2772,23 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>-0.0208</v>
       </c>
-      <c r="K6" s="15">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE))/VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE)</f>
+      <c r="K6" s="16">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
         <v>-0.00474260584633955</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="17">
         <f>I6/(ROW()-5)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="23">
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>-1</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f>IF(A6&lt;E6,"是","否")</f>
+        <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O6" s="9" t="s">
@@ -2708,38 +2824,85 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="34">
+      <c r="AF6" s="36">
         <v>110.4</v>
       </c>
       <c r="AG6" s="3">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,7,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
         <v>-5.56999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7" s="7">
         <v>44541</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="B7" s="8">
+        <v>112.58</v>
+      </c>
+      <c r="C7" s="8">
+        <v>115.41</v>
+      </c>
+      <c r="D7" s="8">
+        <v>115.99</v>
+      </c>
+      <c r="E7" s="8">
+        <v>110.08</v>
+      </c>
+      <c r="F7" s="8">
+        <v>113.78</v>
+      </c>
+      <c r="G7" s="8">
+        <v>108.98</v>
+      </c>
+      <c r="H7" s="8">
+        <v>49.4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f>(B7-B6)/B6</f>
+        <v>-0.0246057875584821</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
+        <v>-0.029231697852893</v>
+      </c>
+      <c r="L7" s="17">
+        <f>I7/(ROW()-5)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="23" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f>IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="T7" s="9" t="str">
+        <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="W7" s="8"/>
       <c r="X7" s="3"/>
@@ -2750,7 +2913,14 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="34"/>
+      <c r="AF7" s="36">
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
+        <v>110.4</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$14,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)</f>
+        <v>-5.56999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="7">
@@ -2764,9 +2934,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2786,7 +2956,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="34"/>
+      <c r="AF8" s="36"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="7">
@@ -2800,9 +2970,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2822,7 +2992,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="34"/>
+      <c r="AF9" s="36"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="7">
@@ -2836,9 +3006,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -2858,7 +3028,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="34"/>
+      <c r="AF10" s="36"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="7">
@@ -2872,9 +3042,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -2894,7 +3064,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="34"/>
+      <c r="AF11" s="36"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="7">
@@ -2908,9 +3078,9 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -2930,7 +3100,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="34"/>
+      <c r="AF12" s="36"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="7">
@@ -2944,9 +3114,9 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2966,7 +3136,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="34"/>
+      <c r="AF13" s="36"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="7">
@@ -2980,9 +3150,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -3002,7 +3172,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="34"/>
+      <c r="AF14" s="36"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="7">
@@ -3016,9 +3186,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -3038,7 +3208,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="34"/>
+      <c r="AF15" s="36"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="7">
@@ -3052,9 +3222,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -3074,7 +3244,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="34"/>
+      <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="7">
@@ -3088,9 +3258,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -3110,7 +3280,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="34"/>
+      <c r="AF17" s="36"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="7">
@@ -3124,9 +3294,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -3146,7 +3316,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="34"/>
+      <c r="AF18" s="36"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="7">
@@ -3160,9 +3330,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -3182,7 +3352,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="34"/>
+      <c r="AF19" s="36"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="7">
@@ -3196,9 +3366,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -3218,7 +3388,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="34"/>
+      <c r="AF20" s="36"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="7">
@@ -3232,9 +3402,9 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -3254,7 +3424,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="34"/>
+      <c r="AF21" s="36"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="7">
@@ -3268,9 +3438,9 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -3290,7 +3460,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="34"/>
+      <c r="AF22" s="36"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7">
@@ -3304,9 +3474,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="15"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -3326,7 +3496,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="34"/>
+      <c r="AF23" s="36"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="7">
@@ -3340,9 +3510,9 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="15"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -3362,7 +3532,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="34"/>
+      <c r="AF24" s="36"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="7">
@@ -3376,9 +3546,9 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="15"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -3398,7 +3568,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="34"/>
+      <c r="AF25" s="36"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="7">
@@ -3412,9 +3582,9 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -3434,7 +3604,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="34"/>
+      <c r="AF26" s="36"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="7">
@@ -3448,9 +3618,9 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -3470,7 +3640,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="34"/>
+      <c r="AF27" s="36"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="7">
@@ -3484,9 +3654,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -3506,7 +3676,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="34"/>
+      <c r="AF28" s="36"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="7">
@@ -3520,9 +3690,9 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -3542,7 +3712,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="34"/>
+      <c r="AF29" s="36"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="7">
@@ -3556,9 +3726,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -3578,7 +3748,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="34"/>
+      <c r="AF30" s="36"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="7">
@@ -3592,9 +3762,9 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="15"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -3614,7 +3784,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="34"/>
+      <c r="AF31" s="36"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="7">
@@ -3628,9 +3798,9 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="15"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -3650,7 +3820,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="34"/>
+      <c r="AF32" s="36"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="7">
@@ -3664,9 +3834,9 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -3686,7 +3856,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="34"/>
+      <c r="AF33" s="36"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="7">
@@ -3700,9 +3870,9 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="15"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -3722,7 +3892,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="34"/>
+      <c r="AF34" s="36"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="7">
@@ -3736,9 +3906,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -3758,7 +3928,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="34"/>
+      <c r="AF35" s="36"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="7">
@@ -3772,9 +3942,9 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -3794,7 +3964,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="34"/>
+      <c r="AF36" s="36"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="7">
@@ -3808,9 +3978,9 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="15"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -3830,7 +4000,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="34"/>
+      <c r="AF37" s="36"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="7">
@@ -3844,9 +4014,9 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="15"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -3866,7 +4036,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="34"/>
+      <c r="AF38" s="36"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="7">
@@ -3880,9 +4050,9 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="15"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
@@ -3902,7 +4072,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="34"/>
+      <c r="AF39" s="36"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="7">
@@ -3916,9 +4086,9 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="16"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="15"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -3938,7 +4108,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="34"/>
+      <c r="AF40" s="36"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="7">
@@ -3952,9 +4122,9 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="16"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="15"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3974,7 +4144,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="34"/>
+      <c r="AF41" s="36"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="7">
@@ -3988,9 +4158,9 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="15"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -4010,7 +4180,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="34"/>
+      <c r="AF42" s="36"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="7">
@@ -4024,9 +4194,9 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="J43" s="16"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -4046,7 +4216,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="34"/>
+      <c r="AF43" s="36"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="7">
@@ -4060,9 +4230,9 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="15"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
@@ -4082,7 +4252,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="34"/>
+      <c r="AF44" s="36"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="7">
@@ -4096,9 +4266,9 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
@@ -4118,7 +4288,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="34"/>
+      <c r="AF45" s="36"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="7">
@@ -4132,9 +4302,9 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="15"/>
+      <c r="L46" s="16"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -4154,7 +4324,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="34"/>
+      <c r="AF46" s="36"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="7">
@@ -4168,9 +4338,9 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="16"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="15"/>
+      <c r="L47" s="16"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4190,7 +4360,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="34"/>
+      <c r="AF47" s="36"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="7">
@@ -4204,9 +4374,9 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="15"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
@@ -4226,7 +4396,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="34"/>
+      <c r="AF48" s="36"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="7">
@@ -4240,9 +4410,9 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="J49" s="16"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="15"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -4262,7 +4432,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="34"/>
+      <c r="AF49" s="36"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="7">
@@ -4276,9 +4446,9 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="15"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -4298,7 +4468,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="34"/>
+      <c r="AF50" s="36"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="7">
@@ -4312,9 +4482,9 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="15"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -4334,7 +4504,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="34"/>
+      <c r="AF51" s="36"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="7">
@@ -4348,9 +4518,9 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="15"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
@@ -4370,7 +4540,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="34"/>
+      <c r="AF52" s="36"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="7">
@@ -4384,9 +4554,9 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="15"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -4406,7 +4576,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="34"/>
+      <c r="AF53" s="36"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="7">
@@ -4420,9 +4590,9 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="15"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
@@ -4442,7 +4612,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="34"/>
+      <c r="AF54" s="36"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="7">
@@ -4456,9 +4626,9 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="15"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
@@ -4478,7 +4648,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="34"/>
+      <c r="AF55" s="36"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="7">
@@ -4492,9 +4662,9 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="15"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -4514,7 +4684,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="34"/>
+      <c r="AF56" s="36"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="7">
@@ -4528,9 +4698,9 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="16"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="15"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -4550,7 +4720,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="34"/>
+      <c r="AF57" s="36"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="7">
@@ -4564,9 +4734,9 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="J58" s="16"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="15"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -4586,7 +4756,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="34"/>
+      <c r="AF58" s="36"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="7">
@@ -4600,9 +4770,9 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="16"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="15"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -4622,7 +4792,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="34"/>
+      <c r="AF59" s="36"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="7">
@@ -4636,9 +4806,9 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="15"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -4658,7 +4828,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="34"/>
+      <c r="AF60" s="36"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="7">
@@ -4672,9 +4842,9 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="15"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
@@ -4694,7 +4864,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="34"/>
+      <c r="AF61" s="36"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="7">
@@ -4708,9 +4878,9 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="J62" s="16"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="15"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -4730,7 +4900,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
-      <c r="AF62" s="34"/>
+      <c r="AF62" s="36"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="7">
@@ -4744,9 +4914,9 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="J63" s="16"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="15"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4766,7 +4936,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
-      <c r="AF63" s="34"/>
+      <c r="AF63" s="36"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="7">
@@ -4780,9 +4950,9 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="J64" s="16"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="15"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -4802,7 +4972,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
-      <c r="AF64" s="34"/>
+      <c r="AF64" s="36"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="7">
@@ -4816,9 +4986,9 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="J65" s="16"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="15"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -4838,7 +5008,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
-      <c r="AF65" s="34"/>
+      <c r="AF65" s="36"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="7">
@@ -4852,9 +5022,9 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="16"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="15"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -4874,7 +5044,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
-      <c r="AF66" s="34"/>
+      <c r="AF66" s="36"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="7">
@@ -4888,9 +5058,9 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="16"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="15"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -4910,7 +5080,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-      <c r="AF67" s="34"/>
+      <c r="AF67" s="36"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="7">
@@ -4924,9 +5094,9 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="16"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="15"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
@@ -4946,7 +5116,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
-      <c r="AF68" s="34"/>
+      <c r="AF68" s="36"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="7">
@@ -4960,9 +5130,9 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="16"/>
       <c r="K69" s="9"/>
-      <c r="L69" s="15"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
@@ -4982,7 +5152,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
-      <c r="AF69" s="34"/>
+      <c r="AF69" s="36"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="7">
@@ -4996,9 +5166,9 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="J70" s="16"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="15"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
@@ -5018,7 +5188,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
-      <c r="AF70" s="34"/>
+      <c r="AF70" s="36"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="7">
@@ -5032,9 +5202,9 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="J71" s="16"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="15"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -5054,7 +5224,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
-      <c r="AF71" s="34"/>
+      <c r="AF71" s="36"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="7">
@@ -5068,9 +5238,9 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="16"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="15"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
@@ -5090,7 +5260,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
-      <c r="AF72" s="34"/>
+      <c r="AF72" s="36"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="7">
@@ -5104,9 +5274,9 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="J73" s="16"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="15"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
@@ -5126,7 +5296,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
-      <c r="AF73" s="34"/>
+      <c r="AF73" s="36"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="7">
@@ -5140,9 +5310,9 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="J74" s="16"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="15"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
@@ -5162,7 +5332,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
-      <c r="AF74" s="34"/>
+      <c r="AF74" s="36"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="7">
@@ -5176,9 +5346,9 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="J75" s="16"/>
       <c r="K75" s="9"/>
-      <c r="L75" s="15"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
@@ -5198,7 +5368,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
-      <c r="AF75" s="34"/>
+      <c r="AF75" s="36"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="7">
@@ -5212,9 +5382,9 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="J76" s="16"/>
       <c r="K76" s="9"/>
-      <c r="L76" s="15"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
@@ -5234,7 +5404,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
-      <c r="AF76" s="34"/>
+      <c r="AF76" s="36"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="7">
@@ -5248,9 +5418,9 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="J77" s="16"/>
       <c r="K77" s="9"/>
-      <c r="L77" s="15"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
@@ -5270,7 +5440,7 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
-      <c r="AF77" s="34"/>
+      <c r="AF77" s="36"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="7">
@@ -5284,9 +5454,9 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="J78" s="16"/>
       <c r="K78" s="9"/>
-      <c r="L78" s="15"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -5306,7 +5476,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
-      <c r="AF78" s="34"/>
+      <c r="AF78" s="36"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="7">
@@ -5320,9 +5490,9 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="J79" s="16"/>
       <c r="K79" s="9"/>
-      <c r="L79" s="15"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -5342,7 +5512,7 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
-      <c r="AF79" s="34"/>
+      <c r="AF79" s="36"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="7">
@@ -5356,9 +5526,9 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="16"/>
       <c r="K80" s="9"/>
-      <c r="L80" s="15"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -5378,7 +5548,7 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
-      <c r="AF80" s="34"/>
+      <c r="AF80" s="36"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="7">
@@ -5392,9 +5562,9 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="16"/>
       <c r="K81" s="9"/>
-      <c r="L81" s="15"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
@@ -5414,7 +5584,7 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
-      <c r="AF81" s="34"/>
+      <c r="AF81" s="36"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="7">
@@ -5428,9 +5598,9 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="J82" s="16"/>
       <c r="K82" s="9"/>
-      <c r="L82" s="15"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
@@ -5450,7 +5620,7 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-      <c r="AF82" s="34"/>
+      <c r="AF82" s="36"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="7">
@@ -5464,9 +5634,9 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="16"/>
       <c r="K83" s="9"/>
-      <c r="L83" s="15"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
@@ -5486,7 +5656,7 @@
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
-      <c r="AF83" s="34"/>
+      <c r="AF83" s="36"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="7">
@@ -5500,9 +5670,9 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="16"/>
       <c r="K84" s="9"/>
-      <c r="L84" s="15"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
@@ -5522,7 +5692,7 @@
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
-      <c r="AF84" s="34"/>
+      <c r="AF84" s="36"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="7">
@@ -5536,9 +5706,9 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="J85" s="16"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="15"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
@@ -5558,7 +5728,7 @@
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
-      <c r="AF85" s="34"/>
+      <c r="AF85" s="36"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="7">
@@ -5572,9 +5742,9 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="J86" s="16"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="15"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
@@ -5594,7 +5764,7 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
-      <c r="AF86" s="34"/>
+      <c r="AF86" s="36"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="7">
@@ -5608,9 +5778,9 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="16"/>
       <c r="K87" s="9"/>
-      <c r="L87" s="15"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -5630,7 +5800,7 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
-      <c r="AF87" s="34"/>
+      <c r="AF87" s="36"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="7">
@@ -5644,9 +5814,9 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="16"/>
       <c r="K88" s="9"/>
-      <c r="L88" s="15"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -5666,7 +5836,7 @@
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
-      <c r="AF88" s="34"/>
+      <c r="AF88" s="36"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="7">
@@ -5680,9 +5850,9 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="16"/>
       <c r="K89" s="9"/>
-      <c r="L89" s="15"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -5702,7 +5872,7 @@
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
-      <c r="AF89" s="34"/>
+      <c r="AF89" s="36"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="7">
@@ -5716,9 +5886,9 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="J90" s="16"/>
       <c r="K90" s="9"/>
-      <c r="L90" s="15"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
@@ -5738,7 +5908,7 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-      <c r="AF90" s="34"/>
+      <c r="AF90" s="36"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="7">
@@ -5752,9 +5922,9 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="J91" s="16"/>
       <c r="K91" s="9"/>
-      <c r="L91" s="15"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
@@ -5774,7 +5944,7 @@
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
-      <c r="AF91" s="34"/>
+      <c r="AF91" s="36"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="7">
@@ -5788,9 +5958,9 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="J92" s="16"/>
       <c r="K92" s="9"/>
-      <c r="L92" s="15"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
@@ -5810,7 +5980,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
-      <c r="AF92" s="34"/>
+      <c r="AF92" s="36"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="7">
@@ -5824,9 +5994,9 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="J93" s="16"/>
       <c r="K93" s="9"/>
-      <c r="L93" s="15"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
@@ -5846,7 +6016,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
-      <c r="AF93" s="34"/>
+      <c r="AF93" s="36"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="7">
@@ -5860,9 +6030,9 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="J94" s="16"/>
       <c r="K94" s="9"/>
-      <c r="L94" s="15"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
@@ -5882,7 +6052,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
-      <c r="AF94" s="34"/>
+      <c r="AF94" s="36"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="7">
@@ -5896,9 +6066,9 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="J95" s="16"/>
       <c r="K95" s="9"/>
-      <c r="L95" s="15"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -5918,7 +6088,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-      <c r="AF95" s="34"/>
+      <c r="AF95" s="36"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="7">
@@ -5932,9 +6102,9 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="16"/>
       <c r="K96" s="9"/>
-      <c r="L96" s="15"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
@@ -5954,7 +6124,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
-      <c r="AF96" s="34"/>
+      <c r="AF96" s="36"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="7">
@@ -5968,9 +6138,9 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="16"/>
       <c r="K97" s="9"/>
-      <c r="L97" s="15"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
@@ -5990,7 +6160,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
-      <c r="AF97" s="34"/>
+      <c r="AF97" s="36"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="7">
@@ -6004,9 +6174,9 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="16"/>
       <c r="K98" s="9"/>
-      <c r="L98" s="15"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
@@ -6026,7 +6196,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
-      <c r="AF98" s="34"/>
+      <c r="AF98" s="36"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="7">
@@ -6040,9 +6210,9 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="J99" s="16"/>
       <c r="K99" s="9"/>
-      <c r="L99" s="15"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
@@ -6062,7 +6232,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
-      <c r="AF99" s="34"/>
+      <c r="AF99" s="36"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="7">
@@ -6076,9 +6246,9 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="16"/>
       <c r="K100" s="9"/>
-      <c r="L100" s="15"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
@@ -6098,7 +6268,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
-      <c r="AF100" s="34"/>
+      <c r="AF100" s="36"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="7">
@@ -6112,9 +6282,9 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
+      <c r="J101" s="16"/>
       <c r="K101" s="9"/>
-      <c r="L101" s="15"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
@@ -6134,7 +6304,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
-      <c r="AF101" s="34"/>
+      <c r="AF101" s="36"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="7">
@@ -6148,9 +6318,9 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="J102" s="16"/>
       <c r="K102" s="9"/>
-      <c r="L102" s="15"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
@@ -6170,7 +6340,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
-      <c r="AF102" s="34"/>
+      <c r="AF102" s="36"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="7">
@@ -6184,9 +6354,9 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
+      <c r="J103" s="16"/>
       <c r="K103" s="9"/>
-      <c r="L103" s="15"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
@@ -6206,7 +6376,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
-      <c r="AF103" s="34"/>
+      <c r="AF103" s="36"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="7">
@@ -6220,9 +6390,9 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
+      <c r="J104" s="16"/>
       <c r="K104" s="9"/>
-      <c r="L104" s="15"/>
+      <c r="L104" s="16"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -6242,7 +6412,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
-      <c r="AF104" s="34"/>
+      <c r="AF104" s="36"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="7">
@@ -6256,9 +6426,9 @@
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="16"/>
       <c r="K105" s="9"/>
-      <c r="L105" s="15"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
@@ -6278,7 +6448,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
-      <c r="AF105" s="34"/>
+      <c r="AF105" s="36"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="7">
@@ -6292,9 +6462,9 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
+      <c r="J106" s="16"/>
       <c r="K106" s="9"/>
-      <c r="L106" s="15"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
@@ -6314,7 +6484,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
-      <c r="AF106" s="34"/>
+      <c r="AF106" s="36"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="7">
@@ -6328,9 +6498,9 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
+      <c r="J107" s="16"/>
       <c r="K107" s="9"/>
-      <c r="L107" s="15"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
@@ -6350,7 +6520,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
-      <c r="AF107" s="34"/>
+      <c r="AF107" s="36"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="7">
@@ -6364,9 +6534,9 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="16"/>
       <c r="K108" s="9"/>
-      <c r="L108" s="15"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
@@ -6386,7 +6556,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
-      <c r="AF108" s="34"/>
+      <c r="AF108" s="36"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="7">
@@ -6400,9 +6570,9 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
+      <c r="J109" s="16"/>
       <c r="K109" s="9"/>
-      <c r="L109" s="15"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
@@ -6422,7 +6592,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
-      <c r="AF109" s="34"/>
+      <c r="AF109" s="36"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="7">
@@ -6436,9 +6606,9 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="J110" s="16"/>
       <c r="K110" s="9"/>
-      <c r="L110" s="15"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -6458,7 +6628,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
-      <c r="AF110" s="34"/>
+      <c r="AF110" s="36"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="7">
@@ -6472,9 +6642,9 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
+      <c r="J111" s="16"/>
       <c r="K111" s="9"/>
-      <c r="L111" s="15"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
@@ -6494,7 +6664,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
-      <c r="AF111" s="34"/>
+      <c r="AF111" s="36"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="7">
@@ -6508,9 +6678,9 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="J112" s="16"/>
       <c r="K112" s="9"/>
-      <c r="L112" s="15"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
@@ -6530,7 +6700,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
-      <c r="AF112" s="34"/>
+      <c r="AF112" s="36"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="7">
@@ -6544,9 +6714,9 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
+      <c r="J113" s="16"/>
       <c r="K113" s="9"/>
-      <c r="L113" s="15"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
@@ -6566,7 +6736,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
-      <c r="AF113" s="34"/>
+      <c r="AF113" s="36"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="7">
@@ -6580,9 +6750,9 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="16"/>
       <c r="K114" s="9"/>
-      <c r="L114" s="15"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
@@ -6602,7 +6772,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
-      <c r="AF114" s="34"/>
+      <c r="AF114" s="36"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="7">
@@ -6616,9 +6786,9 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="J115" s="16"/>
       <c r="K115" s="9"/>
-      <c r="L115" s="15"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
@@ -6638,7 +6808,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
-      <c r="AF115" s="34"/>
+      <c r="AF115" s="36"/>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="1"/>
@@ -6649,9 +6819,9 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="J116" s="38"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="36"/>
+      <c r="L116" s="38"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -6671,9 +6841,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="J117" s="38"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="36"/>
+      <c r="L117" s="38"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -6693,9 +6863,9 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="J118" s="38"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="36"/>
+      <c r="L118" s="38"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -6715,9 +6885,9 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="J119" s="38"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="36"/>
+      <c r="L119" s="38"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -6737,9 +6907,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="J120" s="38"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="36"/>
+      <c r="L120" s="38"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -6759,9 +6929,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="J121" s="38"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="36"/>
+      <c r="L121" s="38"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -6781,9 +6951,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="J122" s="38"/>
       <c r="K122" s="1"/>
-      <c r="L122" s="36"/>
+      <c r="L122" s="38"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -6803,9 +6973,9 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="J123" s="38"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="36"/>
+      <c r="L123" s="38"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -6825,9 +6995,9 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="J124" s="38"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="36"/>
+      <c r="L124" s="38"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -6847,9 +7017,9 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="J125" s="38"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="36"/>
+      <c r="L125" s="38"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -6869,9 +7039,9 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="J126" s="38"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="36"/>
+      <c r="L126" s="38"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -6891,9 +7061,9 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="J127" s="38"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="36"/>
+      <c r="L127" s="38"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -6913,9 +7083,9 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="J128" s="38"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="36"/>
+      <c r="L128" s="38"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -6935,9 +7105,9 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="J129" s="38"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="36"/>
+      <c r="L129" s="38"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -6957,9 +7127,9 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="38"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="36"/>
+      <c r="L130" s="38"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -6979,9 +7149,9 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="J131" s="38"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="36"/>
+      <c r="L131" s="38"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7001,9 +7171,9 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="J132" s="38"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="36"/>
+      <c r="L132" s="38"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7023,9 +7193,9 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="38"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="36"/>
+      <c r="L133" s="38"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7045,9 +7215,9 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="J134" s="38"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="36"/>
+      <c r="L134" s="38"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7067,9 +7237,9 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="J135" s="38"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="36"/>
+      <c r="L135" s="38"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7089,9 +7259,9 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="J136" s="38"/>
       <c r="K136" s="1"/>
-      <c r="L136" s="36"/>
+      <c r="L136" s="38"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7111,9 +7281,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="J137" s="38"/>
       <c r="K137" s="1"/>
-      <c r="L137" s="36"/>
+      <c r="L137" s="38"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7133,9 +7303,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="J138" s="38"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="36"/>
+      <c r="L138" s="38"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7155,9 +7325,9 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="J139" s="38"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="36"/>
+      <c r="L139" s="38"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7177,9 +7347,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
+      <c r="J140" s="38"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="36"/>
+      <c r="L140" s="38"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7199,9 +7369,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="J141" s="38"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="36"/>
+      <c r="L141" s="38"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7221,9 +7391,9 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="J142" s="38"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="36"/>
+      <c r="L142" s="38"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7243,9 +7413,9 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="J143" s="38"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="36"/>
+      <c r="L143" s="38"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7265,9 +7435,9 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="J144" s="38"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="36"/>
+      <c r="L144" s="38"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -7287,9 +7457,9 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="J145" s="38"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="36"/>
+      <c r="L145" s="38"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7309,9 +7479,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="J146" s="38"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="36"/>
+      <c r="L146" s="38"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -7331,9 +7501,9 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="J147" s="38"/>
       <c r="K147" s="1"/>
-      <c r="L147" s="36"/>
+      <c r="L147" s="38"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -7353,9 +7523,9 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="J148" s="38"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="36"/>
+      <c r="L148" s="38"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -7375,9 +7545,9 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="J149" s="38"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="36"/>
+      <c r="L149" s="38"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -7397,9 +7567,9 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="J150" s="38"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="36"/>
+      <c r="L150" s="38"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -7419,9 +7589,9 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="J151" s="38"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="36"/>
+      <c r="L151" s="38"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -7441,9 +7611,9 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="J152" s="38"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="36"/>
+      <c r="L152" s="38"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -7463,9 +7633,9 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="J153" s="38"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="36"/>
+      <c r="L153" s="38"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
@@ -7485,9 +7655,9 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="J154" s="38"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="36"/>
+      <c r="L154" s="38"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -7507,9 +7677,9 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="J155" s="38"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="36"/>
+      <c r="L155" s="38"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -7529,9 +7699,9 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
+      <c r="J156" s="38"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="36"/>
+      <c r="L156" s="38"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -7551,9 +7721,9 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="J157" s="38"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="36"/>
+      <c r="L157" s="38"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -7573,9 +7743,9 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="J158" s="38"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="36"/>
+      <c r="L158" s="38"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -7595,9 +7765,9 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="J159" s="38"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="36"/>
+      <c r="L159" s="38"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
@@ -7617,9 +7787,9 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="J160" s="38"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="36"/>
+      <c r="L160" s="38"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
@@ -7639,9 +7809,9 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="J161" s="38"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="36"/>
+      <c r="L161" s="38"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
@@ -7661,9 +7831,9 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="J162" s="38"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="36"/>
+      <c r="L162" s="38"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
@@ -7683,9 +7853,9 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="J163" s="38"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="36"/>
+      <c r="L163" s="38"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
@@ -7705,9 +7875,9 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="J164" s="38"/>
       <c r="K164" s="1"/>
-      <c r="L164" s="36"/>
+      <c r="L164" s="38"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
@@ -7727,9 +7897,9 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="J165" s="38"/>
       <c r="K165" s="1"/>
-      <c r="L165" s="36"/>
+      <c r="L165" s="38"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
@@ -7749,9 +7919,9 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="J166" s="38"/>
       <c r="K166" s="1"/>
-      <c r="L166" s="36"/>
+      <c r="L166" s="38"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
@@ -7771,9 +7941,9 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="38"/>
       <c r="K167" s="1"/>
-      <c r="L167" s="36"/>
+      <c r="L167" s="38"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
@@ -7793,9 +7963,9 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="J168" s="38"/>
       <c r="K168" s="1"/>
-      <c r="L168" s="36"/>
+      <c r="L168" s="38"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
@@ -7815,9 +7985,9 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="J169" s="38"/>
       <c r="K169" s="1"/>
-      <c r="L169" s="36"/>
+      <c r="L169" s="38"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
@@ -7837,9 +8007,9 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+      <c r="J170" s="38"/>
       <c r="K170" s="1"/>
-      <c r="L170" s="36"/>
+      <c r="L170" s="38"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
@@ -7859,9 +8029,9 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
+      <c r="J171" s="38"/>
       <c r="K171" s="1"/>
-      <c r="L171" s="36"/>
+      <c r="L171" s="38"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
@@ -7881,9 +8051,9 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
+      <c r="J172" s="38"/>
       <c r="K172" s="1"/>
-      <c r="L172" s="36"/>
+      <c r="L172" s="38"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
@@ -7903,9 +8073,9 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="J173" s="38"/>
       <c r="K173" s="1"/>
-      <c r="L173" s="36"/>
+      <c r="L173" s="38"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
@@ -7925,9 +8095,9 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="J174" s="38"/>
       <c r="K174" s="1"/>
-      <c r="L174" s="36"/>
+      <c r="L174" s="38"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -7947,9 +8117,9 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="J175" s="38"/>
       <c r="K175" s="1"/>
-      <c r="L175" s="36"/>
+      <c r="L175" s="38"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -7969,9 +8139,9 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="J176" s="38"/>
       <c r="K176" s="1"/>
-      <c r="L176" s="36"/>
+      <c r="L176" s="38"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
@@ -7991,9 +8161,9 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="J177" s="38"/>
       <c r="K177" s="1"/>
-      <c r="L177" s="36"/>
+      <c r="L177" s="38"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
@@ -8013,9 +8183,9 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="38"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="36"/>
+      <c r="L178" s="38"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -8035,9 +8205,9 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="J179" s="38"/>
       <c r="K179" s="1"/>
-      <c r="L179" s="36"/>
+      <c r="L179" s="38"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -8057,9 +8227,9 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="38"/>
       <c r="K180" s="1"/>
-      <c r="L180" s="36"/>
+      <c r="L180" s="38"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -8079,9 +8249,9 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+      <c r="J181" s="38"/>
       <c r="K181" s="1"/>
-      <c r="L181" s="36"/>
+      <c r="L181" s="38"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
@@ -8101,9 +8271,9 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="38"/>
       <c r="K182" s="1"/>
-      <c r="L182" s="36"/>
+      <c r="L182" s="38"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
@@ -8123,9 +8293,9 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
+      <c r="J183" s="38"/>
       <c r="K183" s="1"/>
-      <c r="L183" s="36"/>
+      <c r="L183" s="38"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
@@ -8145,9 +8315,9 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
+      <c r="J184" s="38"/>
       <c r="K184" s="1"/>
-      <c r="L184" s="36"/>
+      <c r="L184" s="38"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
@@ -8167,9 +8337,9 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="J185" s="38"/>
       <c r="K185" s="1"/>
-      <c r="L185" s="36"/>
+      <c r="L185" s="38"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
@@ -8189,9 +8359,9 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
+      <c r="J186" s="38"/>
       <c r="K186" s="1"/>
-      <c r="L186" s="36"/>
+      <c r="L186" s="38"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
@@ -8211,9 +8381,9 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="J187" s="38"/>
       <c r="K187" s="1"/>
-      <c r="L187" s="36"/>
+      <c r="L187" s="38"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
@@ -8233,9 +8403,9 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
+      <c r="J188" s="38"/>
       <c r="K188" s="1"/>
-      <c r="L188" s="36"/>
+      <c r="L188" s="38"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
@@ -8255,9 +8425,9 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
+      <c r="J189" s="38"/>
       <c r="K189" s="1"/>
-      <c r="L189" s="36"/>
+      <c r="L189" s="38"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
@@ -8277,9 +8447,9 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
+      <c r="J190" s="38"/>
       <c r="K190" s="1"/>
-      <c r="L190" s="36"/>
+      <c r="L190" s="38"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
@@ -8299,9 +8469,9 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
+      <c r="J191" s="38"/>
       <c r="K191" s="1"/>
-      <c r="L191" s="36"/>
+      <c r="L191" s="38"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -8321,9 +8491,9 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
+      <c r="J192" s="38"/>
       <c r="K192" s="1"/>
-      <c r="L192" s="36"/>
+      <c r="L192" s="38"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
@@ -8343,9 +8513,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="J193" s="38"/>
       <c r="K193" s="1"/>
-      <c r="L193" s="36"/>
+      <c r="L193" s="38"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
@@ -8365,9 +8535,9 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="J194" s="38"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="36"/>
+      <c r="L194" s="38"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
@@ -8387,9 +8557,9 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
+      <c r="J195" s="38"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="36"/>
+      <c r="L195" s="38"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
@@ -8409,9 +8579,9 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
+      <c r="J196" s="38"/>
       <c r="K196" s="1"/>
-      <c r="L196" s="36"/>
+      <c r="L196" s="38"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
@@ -8431,9 +8601,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="J197" s="38"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="36"/>
+      <c r="L197" s="38"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -8453,9 +8623,9 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="J198" s="38"/>
       <c r="K198" s="1"/>
-      <c r="L198" s="36"/>
+      <c r="L198" s="38"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
@@ -8475,9 +8645,9 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="J199" s="38"/>
       <c r="K199" s="1"/>
-      <c r="L199" s="36"/>
+      <c r="L199" s="38"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
@@ -8497,9 +8667,9 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
+      <c r="J200" s="38"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="36"/>
+      <c r="L200" s="38"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -8519,9 +8689,9 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
+      <c r="J201" s="38"/>
       <c r="K201" s="1"/>
-      <c r="L201" s="36"/>
+      <c r="L201" s="38"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -8541,9 +8711,9 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
+      <c r="J202" s="38"/>
       <c r="K202" s="1"/>
-      <c r="L202" s="36"/>
+      <c r="L202" s="38"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
@@ -8563,9 +8733,9 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
+      <c r="J203" s="38"/>
       <c r="K203" s="1"/>
-      <c r="L203" s="36"/>
+      <c r="L203" s="38"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -8585,9 +8755,9 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
+      <c r="J204" s="38"/>
       <c r="K204" s="1"/>
-      <c r="L204" s="36"/>
+      <c r="L204" s="38"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
@@ -8607,9 +8777,9 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
+      <c r="J205" s="38"/>
       <c r="K205" s="1"/>
-      <c r="L205" s="36"/>
+      <c r="L205" s="38"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
@@ -8629,9 +8799,9 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="J206" s="38"/>
       <c r="K206" s="1"/>
-      <c r="L206" s="36"/>
+      <c r="L206" s="38"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
@@ -8651,9 +8821,9 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
+      <c r="J207" s="38"/>
       <c r="K207" s="1"/>
-      <c r="L207" s="36"/>
+      <c r="L207" s="38"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
@@ -8673,9 +8843,9 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
+      <c r="J208" s="38"/>
       <c r="K208" s="1"/>
-      <c r="L208" s="36"/>
+      <c r="L208" s="38"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -8695,9 +8865,9 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
+      <c r="J209" s="38"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="36"/>
+      <c r="L209" s="38"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -8717,9 +8887,9 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
+      <c r="J210" s="38"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="36"/>
+      <c r="L210" s="38"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -8739,9 +8909,9 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
+      <c r="J211" s="38"/>
       <c r="K211" s="1"/>
-      <c r="L211" s="36"/>
+      <c r="L211" s="38"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -8761,9 +8931,9 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="J212" s="38"/>
       <c r="K212" s="1"/>
-      <c r="L212" s="36"/>
+      <c r="L212" s="38"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -8783,9 +8953,9 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
+      <c r="J213" s="38"/>
       <c r="K213" s="1"/>
-      <c r="L213" s="36"/>
+      <c r="L213" s="38"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -8805,9 +8975,9 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
+      <c r="J214" s="38"/>
       <c r="K214" s="1"/>
-      <c r="L214" s="36"/>
+      <c r="L214" s="38"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -8827,9 +8997,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
+      <c r="J215" s="38"/>
       <c r="K215" s="1"/>
-      <c r="L215" s="36"/>
+      <c r="L215" s="38"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -8849,9 +9019,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
+      <c r="J216" s="38"/>
       <c r="K216" s="1"/>
-      <c r="L216" s="36"/>
+      <c r="L216" s="38"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -8871,9 +9041,9 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
+      <c r="J217" s="38"/>
       <c r="K217" s="1"/>
-      <c r="L217" s="36"/>
+      <c r="L217" s="38"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -8893,9 +9063,9 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
+      <c r="J218" s="38"/>
       <c r="K218" s="1"/>
-      <c r="L218" s="36"/>
+      <c r="L218" s="38"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -8915,9 +9085,9 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
+      <c r="J219" s="38"/>
       <c r="K219" s="1"/>
-      <c r="L219" s="36"/>
+      <c r="L219" s="38"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -8937,9 +9107,9 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
+      <c r="J220" s="38"/>
       <c r="K220" s="1"/>
-      <c r="L220" s="36"/>
+      <c r="L220" s="38"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -8959,9 +9129,9 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
+      <c r="J221" s="38"/>
       <c r="K221" s="1"/>
-      <c r="L221" s="36"/>
+      <c r="L221" s="38"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -8981,9 +9151,9 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
+      <c r="J222" s="38"/>
       <c r="K222" s="1"/>
-      <c r="L222" s="36"/>
+      <c r="L222" s="38"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -9003,9 +9173,9 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
+      <c r="J223" s="38"/>
       <c r="K223" s="1"/>
-      <c r="L223" s="36"/>
+      <c r="L223" s="38"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -9025,9 +9195,9 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
+      <c r="J224" s="38"/>
       <c r="K224" s="1"/>
-      <c r="L224" s="36"/>
+      <c r="L224" s="38"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -9047,9 +9217,9 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
+      <c r="J225" s="38"/>
       <c r="K225" s="1"/>
-      <c r="L225" s="36"/>
+      <c r="L225" s="38"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -9069,9 +9239,9 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
+      <c r="J226" s="38"/>
       <c r="K226" s="1"/>
-      <c r="L226" s="36"/>
+      <c r="L226" s="38"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -9091,9 +9261,9 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
+      <c r="J227" s="38"/>
       <c r="K227" s="1"/>
-      <c r="L227" s="36"/>
+      <c r="L227" s="38"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -9113,9 +9283,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
+      <c r="J228" s="38"/>
       <c r="K228" s="1"/>
-      <c r="L228" s="36"/>
+      <c r="L228" s="38"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -9135,9 +9305,9 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
+      <c r="J229" s="38"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="36"/>
+      <c r="L229" s="38"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -9157,9 +9327,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
+      <c r="J230" s="38"/>
       <c r="K230" s="1"/>
-      <c r="L230" s="36"/>
+      <c r="L230" s="38"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -9179,9 +9349,9 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
+      <c r="J231" s="38"/>
       <c r="K231" s="1"/>
-      <c r="L231" s="36"/>
+      <c r="L231" s="38"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -9201,9 +9371,9 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
+      <c r="J232" s="38"/>
       <c r="K232" s="1"/>
-      <c r="L232" s="36"/>
+      <c r="L232" s="38"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -9223,9 +9393,9 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
+      <c r="J233" s="38"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="36"/>
+      <c r="L233" s="38"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -9245,9 +9415,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
+      <c r="J234" s="38"/>
       <c r="K234" s="1"/>
-      <c r="L234" s="36"/>
+      <c r="L234" s="38"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -9267,9 +9437,9 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
+      <c r="J235" s="38"/>
       <c r="K235" s="1"/>
-      <c r="L235" s="36"/>
+      <c r="L235" s="38"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -9289,9 +9459,9 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
+      <c r="J236" s="38"/>
       <c r="K236" s="1"/>
-      <c r="L236" s="36"/>
+      <c r="L236" s="38"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -9311,9 +9481,9 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
+      <c r="J237" s="38"/>
       <c r="K237" s="1"/>
-      <c r="L237" s="36"/>
+      <c r="L237" s="38"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -9333,9 +9503,9 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
+      <c r="J238" s="38"/>
       <c r="K238" s="1"/>
-      <c r="L238" s="36"/>
+      <c r="L238" s="38"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -9355,9 +9525,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="J239" s="38"/>
       <c r="K239" s="1"/>
-      <c r="L239" s="36"/>
+      <c r="L239" s="38"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -9377,9 +9547,9 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
+      <c r="J240" s="38"/>
       <c r="K240" s="1"/>
-      <c r="L240" s="36"/>
+      <c r="L240" s="38"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -9399,9 +9569,9 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
+      <c r="J241" s="38"/>
       <c r="K241" s="1"/>
-      <c r="L241" s="36"/>
+      <c r="L241" s="38"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -9421,9 +9591,9 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
+      <c r="J242" s="38"/>
       <c r="K242" s="1"/>
-      <c r="L242" s="36"/>
+      <c r="L242" s="38"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -9443,9 +9613,9 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
+      <c r="J243" s="38"/>
       <c r="K243" s="1"/>
-      <c r="L243" s="36"/>
+      <c r="L243" s="38"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -9465,9 +9635,9 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
+      <c r="J244" s="38"/>
       <c r="K244" s="1"/>
-      <c r="L244" s="36"/>
+      <c r="L244" s="38"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -9487,9 +9657,9 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
+      <c r="J245" s="38"/>
       <c r="K245" s="1"/>
-      <c r="L245" s="36"/>
+      <c r="L245" s="38"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -9509,9 +9679,9 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
+      <c r="J246" s="38"/>
       <c r="K246" s="1"/>
-      <c r="L246" s="36"/>
+      <c r="L246" s="38"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -9531,9 +9701,9 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
+      <c r="J247" s="38"/>
       <c r="K247" s="1"/>
-      <c r="L247" s="36"/>
+      <c r="L247" s="38"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -9553,9 +9723,9 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
+      <c r="J248" s="38"/>
       <c r="K248" s="1"/>
-      <c r="L248" s="36"/>
+      <c r="L248" s="38"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -9575,9 +9745,9 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
+      <c r="J249" s="38"/>
       <c r="K249" s="1"/>
-      <c r="L249" s="36"/>
+      <c r="L249" s="38"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -9597,9 +9767,9 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
+      <c r="J250" s="38"/>
       <c r="K250" s="1"/>
-      <c r="L250" s="36"/>
+      <c r="L250" s="38"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -9619,9 +9789,9 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
+      <c r="J251" s="38"/>
       <c r="K251" s="1"/>
-      <c r="L251" s="36"/>
+      <c r="L251" s="38"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -9641,9 +9811,9 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
+      <c r="J252" s="38"/>
       <c r="K252" s="1"/>
-      <c r="L252" s="36"/>
+      <c r="L252" s="38"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -9663,9 +9833,9 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
+      <c r="J253" s="38"/>
       <c r="K253" s="1"/>
-      <c r="L253" s="36"/>
+      <c r="L253" s="38"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -9685,9 +9855,9 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
+      <c r="J254" s="38"/>
       <c r="K254" s="1"/>
-      <c r="L254" s="36"/>
+      <c r="L254" s="38"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -9707,9 +9877,9 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
+      <c r="J255" s="38"/>
       <c r="K255" s="1"/>
-      <c r="L255" s="36"/>
+      <c r="L255" s="38"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -9729,9 +9899,9 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
+      <c r="J256" s="38"/>
       <c r="K256" s="1"/>
-      <c r="L256" s="36"/>
+      <c r="L256" s="38"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -9751,9 +9921,9 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
+      <c r="J257" s="38"/>
       <c r="K257" s="1"/>
-      <c r="L257" s="36"/>
+      <c r="L257" s="38"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -9773,9 +9943,9 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
+      <c r="J258" s="38"/>
       <c r="K258" s="1"/>
-      <c r="L258" s="36"/>
+      <c r="L258" s="38"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -9795,9 +9965,9 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
+      <c r="J259" s="38"/>
       <c r="K259" s="1"/>
-      <c r="L259" s="36"/>
+      <c r="L259" s="38"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -9817,9 +9987,9 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
+      <c r="J260" s="38"/>
       <c r="K260" s="1"/>
-      <c r="L260" s="36"/>
+      <c r="L260" s="38"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -9839,9 +10009,9 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
+      <c r="J261" s="38"/>
       <c r="K261" s="1"/>
-      <c r="L261" s="36"/>
+      <c r="L261" s="38"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -9861,9 +10031,9 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
+      <c r="J262" s="38"/>
       <c r="K262" s="1"/>
-      <c r="L262" s="36"/>
+      <c r="L262" s="38"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -9883,9 +10053,9 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
+      <c r="J263" s="38"/>
       <c r="K263" s="1"/>
-      <c r="L263" s="36"/>
+      <c r="L263" s="38"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -9905,9 +10075,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
+      <c r="J264" s="38"/>
       <c r="K264" s="1"/>
-      <c r="L264" s="36"/>
+      <c r="L264" s="38"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -9927,9 +10097,9 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
+      <c r="J265" s="38"/>
       <c r="K265" s="1"/>
-      <c r="L265" s="36"/>
+      <c r="L265" s="38"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -9949,9 +10119,9 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="1"/>
+      <c r="J266" s="38"/>
       <c r="K266" s="1"/>
-      <c r="L266" s="36"/>
+      <c r="L266" s="38"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -9971,9 +10141,9 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
+      <c r="J267" s="38"/>
       <c r="K267" s="1"/>
-      <c r="L267" s="36"/>
+      <c r="L267" s="38"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -9993,9 +10163,9 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
+      <c r="J268" s="38"/>
       <c r="K268" s="1"/>
-      <c r="L268" s="36"/>
+      <c r="L268" s="38"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -10015,9 +10185,9 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
+      <c r="J269" s="38"/>
       <c r="K269" s="1"/>
-      <c r="L269" s="36"/>
+      <c r="L269" s="38"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -10037,9 +10207,9 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
+      <c r="J270" s="38"/>
       <c r="K270" s="1"/>
-      <c r="L270" s="36"/>
+      <c r="L270" s="38"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -10059,9 +10229,9 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
+      <c r="J271" s="38"/>
       <c r="K271" s="1"/>
-      <c r="L271" s="36"/>
+      <c r="L271" s="38"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -10081,9 +10251,9 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
+      <c r="J272" s="38"/>
       <c r="K272" s="1"/>
-      <c r="L272" s="36"/>
+      <c r="L272" s="38"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -10103,9 +10273,9 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="1"/>
+      <c r="J273" s="38"/>
       <c r="K273" s="1"/>
-      <c r="L273" s="36"/>
+      <c r="L273" s="38"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -10125,9 +10295,9 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="1"/>
+      <c r="J274" s="38"/>
       <c r="K274" s="1"/>
-      <c r="L274" s="36"/>
+      <c r="L274" s="38"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -10147,9 +10317,9 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="1"/>
+      <c r="J275" s="38"/>
       <c r="K275" s="1"/>
-      <c r="L275" s="36"/>
+      <c r="L275" s="38"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -10169,9 +10339,9 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
+      <c r="J276" s="38"/>
       <c r="K276" s="1"/>
-      <c r="L276" s="36"/>
+      <c r="L276" s="38"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -10191,9 +10361,9 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
+      <c r="J277" s="38"/>
       <c r="K277" s="1"/>
-      <c r="L277" s="36"/>
+      <c r="L277" s="38"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -10213,9 +10383,9 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
+      <c r="J278" s="38"/>
       <c r="K278" s="1"/>
-      <c r="L278" s="36"/>
+      <c r="L278" s="38"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -10235,9 +10405,9 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
+      <c r="J279" s="38"/>
       <c r="K279" s="1"/>
-      <c r="L279" s="36"/>
+      <c r="L279" s="38"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -10257,9 +10427,9 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="1"/>
+      <c r="J280" s="38"/>
       <c r="K280" s="1"/>
-      <c r="L280" s="36"/>
+      <c r="L280" s="38"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -10279,9 +10449,9 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
+      <c r="J281" s="38"/>
       <c r="K281" s="1"/>
-      <c r="L281" s="36"/>
+      <c r="L281" s="38"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -10301,9 +10471,9 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
+      <c r="J282" s="38"/>
       <c r="K282" s="1"/>
-      <c r="L282" s="36"/>
+      <c r="L282" s="38"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -10323,9 +10493,9 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="1"/>
+      <c r="J283" s="38"/>
       <c r="K283" s="1"/>
-      <c r="L283" s="36"/>
+      <c r="L283" s="38"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -10345,9 +10515,9 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
+      <c r="J284" s="38"/>
       <c r="K284" s="1"/>
-      <c r="L284" s="36"/>
+      <c r="L284" s="38"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -10367,9 +10537,9 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
+      <c r="J285" s="38"/>
       <c r="K285" s="1"/>
-      <c r="L285" s="36"/>
+      <c r="L285" s="38"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -10389,9 +10559,9 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
+      <c r="J286" s="38"/>
       <c r="K286" s="1"/>
-      <c r="L286" s="36"/>
+      <c r="L286" s="38"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -10411,9 +10581,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="1"/>
+      <c r="J287" s="38"/>
       <c r="K287" s="1"/>
-      <c r="L287" s="36"/>
+      <c r="L287" s="38"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -10433,9 +10603,9 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
+      <c r="J288" s="38"/>
       <c r="K288" s="1"/>
-      <c r="L288" s="36"/>
+      <c r="L288" s="38"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -10455,9 +10625,9 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
+      <c r="J289" s="38"/>
       <c r="K289" s="1"/>
-      <c r="L289" s="36"/>
+      <c r="L289" s="38"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -10477,9 +10647,9 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
+      <c r="J290" s="38"/>
       <c r="K290" s="1"/>
-      <c r="L290" s="36"/>
+      <c r="L290" s="38"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -10499,9 +10669,9 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
+      <c r="J291" s="38"/>
       <c r="K291" s="1"/>
-      <c r="L291" s="36"/>
+      <c r="L291" s="38"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -10521,9 +10691,9 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
+      <c r="J292" s="38"/>
       <c r="K292" s="1"/>
-      <c r="L292" s="36"/>
+      <c r="L292" s="38"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -10543,9 +10713,9 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
+      <c r="J293" s="38"/>
       <c r="K293" s="1"/>
-      <c r="L293" s="36"/>
+      <c r="L293" s="38"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -10565,9 +10735,9 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
+      <c r="J294" s="38"/>
       <c r="K294" s="1"/>
-      <c r="L294" s="36"/>
+      <c r="L294" s="38"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -10587,9 +10757,9 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
+      <c r="J295" s="38"/>
       <c r="K295" s="1"/>
-      <c r="L295" s="36"/>
+      <c r="L295" s="38"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -10609,9 +10779,9 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
+      <c r="J296" s="38"/>
       <c r="K296" s="1"/>
-      <c r="L296" s="36"/>
+      <c r="L296" s="38"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -10631,9 +10801,9 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
+      <c r="J297" s="38"/>
       <c r="K297" s="1"/>
-      <c r="L297" s="36"/>
+      <c r="L297" s="38"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -10653,9 +10823,9 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
+      <c r="J298" s="38"/>
       <c r="K298" s="1"/>
-      <c r="L298" s="36"/>
+      <c r="L298" s="38"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -10675,9 +10845,9 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
+      <c r="J299" s="38"/>
       <c r="K299" s="1"/>
-      <c r="L299" s="36"/>
+      <c r="L299" s="38"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -10697,9 +10867,9 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
+      <c r="J300" s="38"/>
       <c r="K300" s="1"/>
-      <c r="L300" s="36"/>
+      <c r="L300" s="38"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -10719,9 +10889,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="1"/>
+      <c r="J301" s="38"/>
       <c r="K301" s="1"/>
-      <c r="L301" s="36"/>
+      <c r="L301" s="38"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -10741,9 +10911,9 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="1"/>
+      <c r="J302" s="38"/>
       <c r="K302" s="1"/>
-      <c r="L302" s="36"/>
+      <c r="L302" s="38"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -10763,9 +10933,9 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
+      <c r="J303" s="38"/>
       <c r="K303" s="1"/>
-      <c r="L303" s="36"/>
+      <c r="L303" s="38"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -10785,9 +10955,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="1"/>
+      <c r="J304" s="38"/>
       <c r="K304" s="1"/>
-      <c r="L304" s="36"/>
+      <c r="L304" s="38"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -10807,9 +10977,9 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
+      <c r="J305" s="38"/>
       <c r="K305" s="1"/>
-      <c r="L305" s="36"/>
+      <c r="L305" s="38"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -10829,9 +10999,9 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
+      <c r="J306" s="38"/>
       <c r="K306" s="1"/>
-      <c r="L306" s="36"/>
+      <c r="L306" s="38"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -10851,9 +11021,9 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
+      <c r="J307" s="38"/>
       <c r="K307" s="1"/>
-      <c r="L307" s="36"/>
+      <c r="L307" s="38"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -10873,9 +11043,9 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="1"/>
+      <c r="J308" s="38"/>
       <c r="K308" s="1"/>
-      <c r="L308" s="36"/>
+      <c r="L308" s="38"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -10895,9 +11065,9 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1"/>
+      <c r="J309" s="38"/>
       <c r="K309" s="1"/>
-      <c r="L309" s="36"/>
+      <c r="L309" s="38"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -10917,9 +11087,9 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="1"/>
+      <c r="J310" s="38"/>
       <c r="K310" s="1"/>
-      <c r="L310" s="36"/>
+      <c r="L310" s="38"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -10939,9 +11109,9 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="1"/>
+      <c r="J311" s="38"/>
       <c r="K311" s="1"/>
-      <c r="L311" s="36"/>
+      <c r="L311" s="38"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -10961,9 +11131,9 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
+      <c r="J312" s="38"/>
       <c r="K312" s="1"/>
-      <c r="L312" s="36"/>
+      <c r="L312" s="38"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -10983,9 +11153,9 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="1"/>
+      <c r="J313" s="38"/>
       <c r="K313" s="1"/>
-      <c r="L313" s="36"/>
+      <c r="L313" s="38"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -11005,9 +11175,9 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="1"/>
+      <c r="J314" s="38"/>
       <c r="K314" s="1"/>
-      <c r="L314" s="36"/>
+      <c r="L314" s="38"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -11027,9 +11197,9 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="1"/>
+      <c r="J315" s="38"/>
       <c r="K315" s="1"/>
-      <c r="L315" s="36"/>
+      <c r="L315" s="38"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -11049,9 +11219,9 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="1"/>
+      <c r="J316" s="38"/>
       <c r="K316" s="1"/>
-      <c r="L316" s="36"/>
+      <c r="L316" s="38"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -11071,9 +11241,9 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
+      <c r="J317" s="38"/>
       <c r="K317" s="1"/>
-      <c r="L317" s="36"/>
+      <c r="L317" s="38"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -11093,9 +11263,9 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
+      <c r="J318" s="38"/>
       <c r="K318" s="1"/>
-      <c r="L318" s="36"/>
+      <c r="L318" s="38"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -11115,9 +11285,9 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="1"/>
+      <c r="J319" s="38"/>
       <c r="K319" s="1"/>
-      <c r="L319" s="36"/>
+      <c r="L319" s="38"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -11137,9 +11307,9 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="1"/>
+      <c r="J320" s="38"/>
       <c r="K320" s="1"/>
-      <c r="L320" s="36"/>
+      <c r="L320" s="38"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -11159,9 +11329,9 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="1"/>
+      <c r="J321" s="38"/>
       <c r="K321" s="1"/>
-      <c r="L321" s="36"/>
+      <c r="L321" s="38"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -11181,9 +11351,9 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="1"/>
+      <c r="J322" s="38"/>
       <c r="K322" s="1"/>
-      <c r="L322" s="36"/>
+      <c r="L322" s="38"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -11203,9 +11373,9 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="1"/>
+      <c r="J323" s="38"/>
       <c r="K323" s="1"/>
-      <c r="L323" s="36"/>
+      <c r="L323" s="38"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -11225,9 +11395,9 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
+      <c r="J324" s="38"/>
       <c r="K324" s="1"/>
-      <c r="L324" s="36"/>
+      <c r="L324" s="38"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -11247,9 +11417,9 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="1"/>
+      <c r="J325" s="38"/>
       <c r="K325" s="1"/>
-      <c r="L325" s="36"/>
+      <c r="L325" s="38"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -11269,9 +11439,9 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
+      <c r="J326" s="38"/>
       <c r="K326" s="1"/>
-      <c r="L326" s="36"/>
+      <c r="L326" s="38"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -11291,9 +11461,9 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
+      <c r="J327" s="38"/>
       <c r="K327" s="1"/>
-      <c r="L327" s="36"/>
+      <c r="L327" s="38"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -11313,9 +11483,9 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
+      <c r="J328" s="38"/>
       <c r="K328" s="1"/>
-      <c r="L328" s="36"/>
+      <c r="L328" s="38"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -11335,9 +11505,9 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
+      <c r="J329" s="38"/>
       <c r="K329" s="1"/>
-      <c r="L329" s="36"/>
+      <c r="L329" s="38"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -11357,9 +11527,9 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
+      <c r="J330" s="38"/>
       <c r="K330" s="1"/>
-      <c r="L330" s="36"/>
+      <c r="L330" s="38"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -11379,9 +11549,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
+      <c r="J331" s="38"/>
       <c r="K331" s="1"/>
-      <c r="L331" s="36"/>
+      <c r="L331" s="38"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -11401,9 +11571,9 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
+      <c r="J332" s="38"/>
       <c r="K332" s="1"/>
-      <c r="L332" s="36"/>
+      <c r="L332" s="38"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -11423,9 +11593,9 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
+      <c r="J333" s="38"/>
       <c r="K333" s="1"/>
-      <c r="L333" s="36"/>
+      <c r="L333" s="38"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -11445,9 +11615,9 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
+      <c r="J334" s="38"/>
       <c r="K334" s="1"/>
-      <c r="L334" s="36"/>
+      <c r="L334" s="38"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -11467,9 +11637,9 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
+      <c r="J335" s="38"/>
       <c r="K335" s="1"/>
-      <c r="L335" s="36"/>
+      <c r="L335" s="38"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -11489,9 +11659,9 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
+      <c r="J336" s="38"/>
       <c r="K336" s="1"/>
-      <c r="L336" s="36"/>
+      <c r="L336" s="38"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -11511,9 +11681,9 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
+      <c r="J337" s="38"/>
       <c r="K337" s="1"/>
-      <c r="L337" s="36"/>
+      <c r="L337" s="38"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -11533,9 +11703,9 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
+      <c r="J338" s="38"/>
       <c r="K338" s="1"/>
-      <c r="L338" s="36"/>
+      <c r="L338" s="38"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -11555,9 +11725,9 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
+      <c r="J339" s="38"/>
       <c r="K339" s="1"/>
-      <c r="L339" s="36"/>
+      <c r="L339" s="38"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -11577,9 +11747,9 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
+      <c r="J340" s="38"/>
       <c r="K340" s="1"/>
-      <c r="L340" s="36"/>
+      <c r="L340" s="38"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -11599,9 +11769,9 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
+      <c r="J341" s="38"/>
       <c r="K341" s="1"/>
-      <c r="L341" s="36"/>
+      <c r="L341" s="38"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -11621,9 +11791,9 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
+      <c r="J342" s="38"/>
       <c r="K342" s="1"/>
-      <c r="L342" s="36"/>
+      <c r="L342" s="38"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -11643,9 +11813,9 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
+      <c r="J343" s="38"/>
       <c r="K343" s="1"/>
-      <c r="L343" s="36"/>
+      <c r="L343" s="38"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -11665,9 +11835,9 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
+      <c r="J344" s="38"/>
       <c r="K344" s="1"/>
-      <c r="L344" s="36"/>
+      <c r="L344" s="38"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -11687,9 +11857,9 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
+      <c r="J345" s="38"/>
       <c r="K345" s="1"/>
-      <c r="L345" s="36"/>
+      <c r="L345" s="38"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -11709,9 +11879,9 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
+      <c r="J346" s="38"/>
       <c r="K346" s="1"/>
-      <c r="L346" s="36"/>
+      <c r="L346" s="38"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -11731,9 +11901,9 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
+      <c r="J347" s="38"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="36"/>
+      <c r="L347" s="38"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -11753,9 +11923,9 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
+      <c r="J348" s="38"/>
       <c r="K348" s="1"/>
-      <c r="L348" s="36"/>
+      <c r="L348" s="38"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -11775,9 +11945,9 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
+      <c r="J349" s="38"/>
       <c r="K349" s="1"/>
-      <c r="L349" s="36"/>
+      <c r="L349" s="38"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -11797,9 +11967,9 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
+      <c r="J350" s="38"/>
       <c r="K350" s="1"/>
-      <c r="L350" s="36"/>
+      <c r="L350" s="38"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -11819,9 +11989,9 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
+      <c r="J351" s="38"/>
       <c r="K351" s="1"/>
-      <c r="L351" s="36"/>
+      <c r="L351" s="38"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -11841,9 +12011,9 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
+      <c r="J352" s="38"/>
       <c r="K352" s="1"/>
-      <c r="L352" s="36"/>
+      <c r="L352" s="38"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -11863,9 +12033,9 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
+      <c r="J353" s="38"/>
       <c r="K353" s="1"/>
-      <c r="L353" s="36"/>
+      <c r="L353" s="38"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -11885,9 +12055,9 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
+      <c r="J354" s="38"/>
       <c r="K354" s="1"/>
-      <c r="L354" s="36"/>
+      <c r="L354" s="38"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -11907,9 +12077,9 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
+      <c r="J355" s="38"/>
       <c r="K355" s="1"/>
-      <c r="L355" s="36"/>
+      <c r="L355" s="38"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -11929,9 +12099,9 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
+      <c r="J356" s="38"/>
       <c r="K356" s="1"/>
-      <c r="L356" s="36"/>
+      <c r="L356" s="38"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -11951,9 +12121,9 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
+      <c r="J357" s="38"/>
       <c r="K357" s="1"/>
-      <c r="L357" s="36"/>
+      <c r="L357" s="38"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -11973,9 +12143,9 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
+      <c r="J358" s="38"/>
       <c r="K358" s="1"/>
-      <c r="L358" s="36"/>
+      <c r="L358" s="38"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -11995,9 +12165,9 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
+      <c r="J359" s="38"/>
       <c r="K359" s="1"/>
-      <c r="L359" s="36"/>
+      <c r="L359" s="38"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -12017,9 +12187,9 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
+      <c r="J360" s="38"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="36"/>
+      <c r="L360" s="38"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -12039,9 +12209,9 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
+      <c r="J361" s="38"/>
       <c r="K361" s="1"/>
-      <c r="L361" s="36"/>
+      <c r="L361" s="38"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -12061,9 +12231,9 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
+      <c r="J362" s="38"/>
       <c r="K362" s="1"/>
-      <c r="L362" s="36"/>
+      <c r="L362" s="38"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -12083,9 +12253,9 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="1"/>
+      <c r="J363" s="38"/>
       <c r="K363" s="1"/>
-      <c r="L363" s="36"/>
+      <c r="L363" s="38"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -12105,9 +12275,9 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
+      <c r="J364" s="38"/>
       <c r="K364" s="1"/>
-      <c r="L364" s="36"/>
+      <c r="L364" s="38"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -12127,9 +12297,9 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
+      <c r="J365" s="38"/>
       <c r="K365" s="1"/>
-      <c r="L365" s="36"/>
+      <c r="L365" s="38"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -12149,9 +12319,9 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
+      <c r="J366" s="38"/>
       <c r="K366" s="1"/>
-      <c r="L366" s="36"/>
+      <c r="L366" s="38"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -12171,9 +12341,9 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
+      <c r="J367" s="38"/>
       <c r="K367" s="1"/>
-      <c r="L367" s="36"/>
+      <c r="L367" s="38"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -12193,9 +12363,9 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
+      <c r="J368" s="38"/>
       <c r="K368" s="1"/>
-      <c r="L368" s="36"/>
+      <c r="L368" s="38"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -12215,9 +12385,9 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="1"/>
+      <c r="J369" s="38"/>
       <c r="K369" s="1"/>
-      <c r="L369" s="36"/>
+      <c r="L369" s="38"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -12237,9 +12407,9 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
+      <c r="J370" s="38"/>
       <c r="K370" s="1"/>
-      <c r="L370" s="36"/>
+      <c r="L370" s="38"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -12259,9 +12429,9 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
+      <c r="J371" s="38"/>
       <c r="K371" s="1"/>
-      <c r="L371" s="36"/>
+      <c r="L371" s="38"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -12281,9 +12451,9 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="1"/>
+      <c r="J372" s="38"/>
       <c r="K372" s="1"/>
-      <c r="L372" s="36"/>
+      <c r="L372" s="38"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -12303,9 +12473,9 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
+      <c r="J373" s="38"/>
       <c r="K373" s="1"/>
-      <c r="L373" s="36"/>
+      <c r="L373" s="38"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -12325,9 +12495,9 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
+      <c r="J374" s="38"/>
       <c r="K374" s="1"/>
-      <c r="L374" s="36"/>
+      <c r="L374" s="38"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -12347,9 +12517,9 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
+      <c r="J375" s="38"/>
       <c r="K375" s="1"/>
-      <c r="L375" s="36"/>
+      <c r="L375" s="38"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -12369,9 +12539,9 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
+      <c r="J376" s="38"/>
       <c r="K376" s="1"/>
-      <c r="L376" s="36"/>
+      <c r="L376" s="38"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -12391,9 +12561,9 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
+      <c r="J377" s="38"/>
       <c r="K377" s="1"/>
-      <c r="L377" s="36"/>
+      <c r="L377" s="38"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -12413,9 +12583,9 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
+      <c r="J378" s="38"/>
       <c r="K378" s="1"/>
-      <c r="L378" s="36"/>
+      <c r="L378" s="38"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -12435,9 +12605,9 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
+      <c r="J379" s="38"/>
       <c r="K379" s="1"/>
-      <c r="L379" s="36"/>
+      <c r="L379" s="38"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -12457,9 +12627,9 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
+      <c r="J380" s="38"/>
       <c r="K380" s="1"/>
-      <c r="L380" s="36"/>
+      <c r="L380" s="38"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -12479,9 +12649,9 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
+      <c r="J381" s="38"/>
       <c r="K381" s="1"/>
-      <c r="L381" s="36"/>
+      <c r="L381" s="38"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -12501,9 +12671,9 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="1"/>
+      <c r="J382" s="38"/>
       <c r="K382" s="1"/>
-      <c r="L382" s="36"/>
+      <c r="L382" s="38"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -12523,9 +12693,9 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="1"/>
+      <c r="J383" s="38"/>
       <c r="K383" s="1"/>
-      <c r="L383" s="36"/>
+      <c r="L383" s="38"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -12545,9 +12715,9 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="1"/>
+      <c r="J384" s="38"/>
       <c r="K384" s="1"/>
-      <c r="L384" s="36"/>
+      <c r="L384" s="38"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -12567,9 +12737,9 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
+      <c r="J385" s="38"/>
       <c r="K385" s="1"/>
-      <c r="L385" s="36"/>
+      <c r="L385" s="38"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -12589,9 +12759,9 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
+      <c r="J386" s="38"/>
       <c r="K386" s="1"/>
-      <c r="L386" s="36"/>
+      <c r="L386" s="38"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -12611,9 +12781,9 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
+      <c r="J387" s="38"/>
       <c r="K387" s="1"/>
-      <c r="L387" s="36"/>
+      <c r="L387" s="38"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -12633,9 +12803,9 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
+      <c r="J388" s="38"/>
       <c r="K388" s="1"/>
-      <c r="L388" s="36"/>
+      <c r="L388" s="38"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -12655,9 +12825,9 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
+      <c r="J389" s="38"/>
       <c r="K389" s="1"/>
-      <c r="L389" s="36"/>
+      <c r="L389" s="38"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -12677,9 +12847,9 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
+      <c r="J390" s="38"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="36"/>
+      <c r="L390" s="38"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -12699,9 +12869,9 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
+      <c r="J391" s="38"/>
       <c r="K391" s="1"/>
-      <c r="L391" s="36"/>
+      <c r="L391" s="38"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -12721,9 +12891,9 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
+      <c r="J392" s="38"/>
       <c r="K392" s="1"/>
-      <c r="L392" s="36"/>
+      <c r="L392" s="38"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -12743,9 +12913,9 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
+      <c r="J393" s="38"/>
       <c r="K393" s="1"/>
-      <c r="L393" s="36"/>
+      <c r="L393" s="38"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -12765,9 +12935,9 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
+      <c r="J394" s="38"/>
       <c r="K394" s="1"/>
-      <c r="L394" s="36"/>
+      <c r="L394" s="38"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -12787,9 +12957,9 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
+      <c r="J395" s="38"/>
       <c r="K395" s="1"/>
-      <c r="L395" s="36"/>
+      <c r="L395" s="38"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -12809,9 +12979,9 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
+      <c r="J396" s="38"/>
       <c r="K396" s="1"/>
-      <c r="L396" s="36"/>
+      <c r="L396" s="38"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -12831,9 +13001,9 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
+      <c r="J397" s="38"/>
       <c r="K397" s="1"/>
-      <c r="L397" s="36"/>
+      <c r="L397" s="38"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -12853,9 +13023,9 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
+      <c r="J398" s="38"/>
       <c r="K398" s="1"/>
-      <c r="L398" s="36"/>
+      <c r="L398" s="38"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -12875,9 +13045,9 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
+      <c r="J399" s="38"/>
       <c r="K399" s="1"/>
-      <c r="L399" s="36"/>
+      <c r="L399" s="38"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -12897,9 +13067,9 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
+      <c r="J400" s="38"/>
       <c r="K400" s="1"/>
-      <c r="L400" s="36"/>
+      <c r="L400" s="38"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -12919,9 +13089,9 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
+      <c r="J401" s="38"/>
       <c r="K401" s="1"/>
-      <c r="L401" s="36"/>
+      <c r="L401" s="38"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -12941,9 +13111,9 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
+      <c r="J402" s="38"/>
       <c r="K402" s="1"/>
-      <c r="L402" s="36"/>
+      <c r="L402" s="38"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -12963,9 +13133,9 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
+      <c r="J403" s="38"/>
       <c r="K403" s="1"/>
-      <c r="L403" s="36"/>
+      <c r="L403" s="38"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -12985,9 +13155,9 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
+      <c r="J404" s="38"/>
       <c r="K404" s="1"/>
-      <c r="L404" s="36"/>
+      <c r="L404" s="38"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -13007,9 +13177,9 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
+      <c r="J405" s="38"/>
       <c r="K405" s="1"/>
-      <c r="L405" s="36"/>
+      <c r="L405" s="38"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -13029,9 +13199,9 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
+      <c r="J406" s="38"/>
       <c r="K406" s="1"/>
-      <c r="L406" s="36"/>
+      <c r="L406" s="38"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -13051,9 +13221,9 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
+      <c r="J407" s="38"/>
       <c r="K407" s="1"/>
-      <c r="L407" s="36"/>
+      <c r="L407" s="38"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -13073,9 +13243,9 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
+      <c r="J408" s="38"/>
       <c r="K408" s="1"/>
-      <c r="L408" s="36"/>
+      <c r="L408" s="38"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -13095,9 +13265,9 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
+      <c r="J409" s="38"/>
       <c r="K409" s="1"/>
-      <c r="L409" s="36"/>
+      <c r="L409" s="38"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -13117,9 +13287,9 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
+      <c r="J410" s="38"/>
       <c r="K410" s="1"/>
-      <c r="L410" s="36"/>
+      <c r="L410" s="38"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
@@ -13139,9 +13309,9 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
+      <c r="J411" s="38"/>
       <c r="K411" s="1"/>
-      <c r="L411" s="36"/>
+      <c r="L411" s="38"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
@@ -13161,9 +13331,9 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
+      <c r="J412" s="38"/>
       <c r="K412" s="1"/>
-      <c r="L412" s="36"/>
+      <c r="L412" s="38"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
@@ -13183,9 +13353,9 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
+      <c r="J413" s="38"/>
       <c r="K413" s="1"/>
-      <c r="L413" s="36"/>
+      <c r="L413" s="38"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
@@ -13205,9 +13375,9 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
+      <c r="J414" s="38"/>
       <c r="K414" s="1"/>
-      <c r="L414" s="36"/>
+      <c r="L414" s="38"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
@@ -13227,9 +13397,9 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
+      <c r="J415" s="38"/>
       <c r="K415" s="1"/>
-      <c r="L415" s="36"/>
+      <c r="L415" s="38"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
@@ -13249,9 +13419,9 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
+      <c r="J416" s="38"/>
       <c r="K416" s="1"/>
-      <c r="L416" s="36"/>
+      <c r="L416" s="38"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
@@ -13271,9 +13441,9 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
+      <c r="J417" s="38"/>
       <c r="K417" s="1"/>
-      <c r="L417" s="36"/>
+      <c r="L417" s="38"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
@@ -13293,9 +13463,9 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
+      <c r="J418" s="38"/>
       <c r="K418" s="1"/>
-      <c r="L418" s="36"/>
+      <c r="L418" s="38"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
@@ -13315,9 +13485,9 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
+      <c r="J419" s="38"/>
       <c r="K419" s="1"/>
-      <c r="L419" s="36"/>
+      <c r="L419" s="38"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
@@ -13337,9 +13507,9 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
+      <c r="J420" s="38"/>
       <c r="K420" s="1"/>
-      <c r="L420" s="36"/>
+      <c r="L420" s="38"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
@@ -13359,9 +13529,9 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="1"/>
+      <c r="J421" s="38"/>
       <c r="K421" s="1"/>
-      <c r="L421" s="36"/>
+      <c r="L421" s="38"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
@@ -13381,9 +13551,9 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="1"/>
+      <c r="J422" s="38"/>
       <c r="K422" s="1"/>
-      <c r="L422" s="36"/>
+      <c r="L422" s="38"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
@@ -13403,9 +13573,9 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="1"/>
+      <c r="J423" s="38"/>
       <c r="K423" s="1"/>
-      <c r="L423" s="36"/>
+      <c r="L423" s="38"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
@@ -13425,9 +13595,9 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="1"/>
+      <c r="J424" s="38"/>
       <c r="K424" s="1"/>
-      <c r="L424" s="36"/>
+      <c r="L424" s="38"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
@@ -13447,9 +13617,9 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
+      <c r="J425" s="38"/>
       <c r="K425" s="1"/>
-      <c r="L425" s="36"/>
+      <c r="L425" s="38"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
@@ -13469,9 +13639,9 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="1"/>
+      <c r="J426" s="38"/>
       <c r="K426" s="1"/>
-      <c r="L426" s="36"/>
+      <c r="L426" s="38"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
@@ -13491,9 +13661,9 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="1"/>
+      <c r="J427" s="38"/>
       <c r="K427" s="1"/>
-      <c r="L427" s="36"/>
+      <c r="L427" s="38"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
@@ -13513,9 +13683,9 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="1"/>
+      <c r="J428" s="38"/>
       <c r="K428" s="1"/>
-      <c r="L428" s="36"/>
+      <c r="L428" s="38"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
@@ -13535,9 +13705,9 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="1"/>
+      <c r="J429" s="38"/>
       <c r="K429" s="1"/>
-      <c r="L429" s="36"/>
+      <c r="L429" s="38"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
@@ -13557,9 +13727,9 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="1"/>
+      <c r="J430" s="38"/>
       <c r="K430" s="1"/>
-      <c r="L430" s="36"/>
+      <c r="L430" s="38"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
@@ -13579,9 +13749,9 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="1"/>
+      <c r="J431" s="38"/>
       <c r="K431" s="1"/>
-      <c r="L431" s="36"/>
+      <c r="L431" s="38"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
@@ -13601,9 +13771,9 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="1"/>
+      <c r="J432" s="38"/>
       <c r="K432" s="1"/>
-      <c r="L432" s="36"/>
+      <c r="L432" s="38"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
@@ -13623,9 +13793,9 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="1"/>
+      <c r="J433" s="38"/>
       <c r="K433" s="1"/>
-      <c r="L433" s="36"/>
+      <c r="L433" s="38"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
@@ -13645,9 +13815,9 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="1"/>
+      <c r="J434" s="38"/>
       <c r="K434" s="1"/>
-      <c r="L434" s="36"/>
+      <c r="L434" s="38"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
@@ -13667,9 +13837,9 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="1"/>
+      <c r="J435" s="38"/>
       <c r="K435" s="1"/>
-      <c r="L435" s="36"/>
+      <c r="L435" s="38"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
@@ -13689,9 +13859,9 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="1"/>
+      <c r="J436" s="38"/>
       <c r="K436" s="1"/>
-      <c r="L436" s="36"/>
+      <c r="L436" s="38"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
@@ -13711,9 +13881,9 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="1"/>
+      <c r="J437" s="38"/>
       <c r="K437" s="1"/>
-      <c r="L437" s="36"/>
+      <c r="L437" s="38"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
@@ -13733,9 +13903,9 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
+      <c r="J438" s="38"/>
       <c r="K438" s="1"/>
-      <c r="L438" s="36"/>
+      <c r="L438" s="38"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
@@ -13755,9 +13925,9 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
+      <c r="J439" s="38"/>
       <c r="K439" s="1"/>
-      <c r="L439" s="36"/>
+      <c r="L439" s="38"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
@@ -13777,9 +13947,9 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="1"/>
+      <c r="J440" s="38"/>
       <c r="K440" s="1"/>
-      <c r="L440" s="36"/>
+      <c r="L440" s="38"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
@@ -13799,9 +13969,9 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="1"/>
+      <c r="J441" s="38"/>
       <c r="K441" s="1"/>
-      <c r="L441" s="36"/>
+      <c r="L441" s="38"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
@@ -13821,9 +13991,9 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="1"/>
+      <c r="J442" s="38"/>
       <c r="K442" s="1"/>
-      <c r="L442" s="36"/>
+      <c r="L442" s="38"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
@@ -13843,9 +14013,9 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
+      <c r="J443" s="38"/>
       <c r="K443" s="1"/>
-      <c r="L443" s="36"/>
+      <c r="L443" s="38"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
@@ -13865,9 +14035,9 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="1"/>
+      <c r="J444" s="38"/>
       <c r="K444" s="1"/>
-      <c r="L444" s="36"/>
+      <c r="L444" s="38"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
@@ -13887,9 +14057,9 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="1"/>
+      <c r="J445" s="38"/>
       <c r="K445" s="1"/>
-      <c r="L445" s="36"/>
+      <c r="L445" s="38"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
@@ -13909,9 +14079,9 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="1"/>
+      <c r="J446" s="38"/>
       <c r="K446" s="1"/>
-      <c r="L446" s="36"/>
+      <c r="L446" s="38"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
@@ -13931,9 +14101,9 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="1"/>
+      <c r="J447" s="38"/>
       <c r="K447" s="1"/>
-      <c r="L447" s="36"/>
+      <c r="L447" s="38"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
@@ -13953,9 +14123,9 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="1"/>
+      <c r="J448" s="38"/>
       <c r="K448" s="1"/>
-      <c r="L448" s="36"/>
+      <c r="L448" s="38"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
@@ -13975,9 +14145,9 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="1"/>
+      <c r="J449" s="38"/>
       <c r="K449" s="1"/>
-      <c r="L449" s="36"/>
+      <c r="L449" s="38"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
@@ -13997,9 +14167,9 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="1"/>
+      <c r="J450" s="38"/>
       <c r="K450" s="1"/>
-      <c r="L450" s="36"/>
+      <c r="L450" s="38"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
@@ -14019,9 +14189,9 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="1"/>
+      <c r="J451" s="38"/>
       <c r="K451" s="1"/>
-      <c r="L451" s="36"/>
+      <c r="L451" s="38"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
@@ -14041,9 +14211,9 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="1"/>
+      <c r="J452" s="38"/>
       <c r="K452" s="1"/>
-      <c r="L452" s="36"/>
+      <c r="L452" s="38"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
@@ -14063,9 +14233,9 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="1"/>
+      <c r="J453" s="38"/>
       <c r="K453" s="1"/>
-      <c r="L453" s="36"/>
+      <c r="L453" s="38"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
@@ -14085,9 +14255,9 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="1"/>
+      <c r="J454" s="38"/>
       <c r="K454" s="1"/>
-      <c r="L454" s="36"/>
+      <c r="L454" s="38"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
@@ -14107,9 +14277,9 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
+      <c r="J455" s="38"/>
       <c r="K455" s="1"/>
-      <c r="L455" s="36"/>
+      <c r="L455" s="38"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
@@ -14129,9 +14299,9 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="1"/>
+      <c r="J456" s="38"/>
       <c r="K456" s="1"/>
-      <c r="L456" s="36"/>
+      <c r="L456" s="38"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
@@ -14151,9 +14321,9 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
+      <c r="J457" s="38"/>
       <c r="K457" s="1"/>
-      <c r="L457" s="36"/>
+      <c r="L457" s="38"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
@@ -14173,9 +14343,9 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="1"/>
+      <c r="J458" s="38"/>
       <c r="K458" s="1"/>
-      <c r="L458" s="36"/>
+      <c r="L458" s="38"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
@@ -14195,9 +14365,9 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="1"/>
+      <c r="J459" s="38"/>
       <c r="K459" s="1"/>
-      <c r="L459" s="36"/>
+      <c r="L459" s="38"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
@@ -14217,9 +14387,9 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="1"/>
+      <c r="J460" s="38"/>
       <c r="K460" s="1"/>
-      <c r="L460" s="36"/>
+      <c r="L460" s="38"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
@@ -14239,9 +14409,9 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="1"/>
+      <c r="J461" s="38"/>
       <c r="K461" s="1"/>
-      <c r="L461" s="36"/>
+      <c r="L461" s="38"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
@@ -14261,9 +14431,9 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="1"/>
+      <c r="J462" s="38"/>
       <c r="K462" s="1"/>
-      <c r="L462" s="36"/>
+      <c r="L462" s="38"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
@@ -14283,9 +14453,9 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="1"/>
+      <c r="J463" s="38"/>
       <c r="K463" s="1"/>
-      <c r="L463" s="36"/>
+      <c r="L463" s="38"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
@@ -14305,9 +14475,9 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="1"/>
+      <c r="J464" s="38"/>
       <c r="K464" s="1"/>
-      <c r="L464" s="36"/>
+      <c r="L464" s="38"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
@@ -14327,9 +14497,9 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="1"/>
+      <c r="J465" s="38"/>
       <c r="K465" s="1"/>
-      <c r="L465" s="36"/>
+      <c r="L465" s="38"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
@@ -14349,9 +14519,9 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="1"/>
+      <c r="J466" s="38"/>
       <c r="K466" s="1"/>
-      <c r="L466" s="36"/>
+      <c r="L466" s="38"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
@@ -14371,9 +14541,9 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="1"/>
+      <c r="J467" s="38"/>
       <c r="K467" s="1"/>
-      <c r="L467" s="36"/>
+      <c r="L467" s="38"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
@@ -14393,9 +14563,9 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="1"/>
+      <c r="J468" s="38"/>
       <c r="K468" s="1"/>
-      <c r="L468" s="36"/>
+      <c r="L468" s="38"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
@@ -14415,9 +14585,9 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="1"/>
+      <c r="J469" s="38"/>
       <c r="K469" s="1"/>
-      <c r="L469" s="36"/>
+      <c r="L469" s="38"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
@@ -14437,9 +14607,9 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="1"/>
+      <c r="J470" s="38"/>
       <c r="K470" s="1"/>
-      <c r="L470" s="36"/>
+      <c r="L470" s="38"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
@@ -14459,9 +14629,9 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="1"/>
+      <c r="J471" s="38"/>
       <c r="K471" s="1"/>
-      <c r="L471" s="36"/>
+      <c r="L471" s="38"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
@@ -14481,9 +14651,9 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="1"/>
+      <c r="J472" s="38"/>
       <c r="K472" s="1"/>
-      <c r="L472" s="36"/>
+      <c r="L472" s="38"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
@@ -14503,9 +14673,9 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="1"/>
+      <c r="J473" s="38"/>
       <c r="K473" s="1"/>
-      <c r="L473" s="36"/>
+      <c r="L473" s="38"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
@@ -14525,9 +14695,9 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="1"/>
+      <c r="J474" s="38"/>
       <c r="K474" s="1"/>
-      <c r="L474" s="36"/>
+      <c r="L474" s="38"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
@@ -14547,9 +14717,9 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="1"/>
+      <c r="J475" s="38"/>
       <c r="K475" s="1"/>
-      <c r="L475" s="36"/>
+      <c r="L475" s="38"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
@@ -14569,9 +14739,9 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="1"/>
+      <c r="J476" s="38"/>
       <c r="K476" s="1"/>
-      <c r="L476" s="36"/>
+      <c r="L476" s="38"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
@@ -14591,9 +14761,9 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="1"/>
+      <c r="J477" s="38"/>
       <c r="K477" s="1"/>
-      <c r="L477" s="36"/>
+      <c r="L477" s="38"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
@@ -14613,9 +14783,9 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="1"/>
+      <c r="J478" s="38"/>
       <c r="K478" s="1"/>
-      <c r="L478" s="36"/>
+      <c r="L478" s="38"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
@@ -14635,9 +14805,9 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="1"/>
+      <c r="J479" s="38"/>
       <c r="K479" s="1"/>
-      <c r="L479" s="36"/>
+      <c r="L479" s="38"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
@@ -14657,9 +14827,9 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
-      <c r="J480" s="1"/>
+      <c r="J480" s="38"/>
       <c r="K480" s="1"/>
-      <c r="L480" s="36"/>
+      <c r="L480" s="38"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
@@ -14679,9 +14849,9 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
-      <c r="J481" s="1"/>
+      <c r="J481" s="38"/>
       <c r="K481" s="1"/>
-      <c r="L481" s="36"/>
+      <c r="L481" s="38"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
@@ -14701,9 +14871,9 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
-      <c r="J482" s="1"/>
+      <c r="J482" s="38"/>
       <c r="K482" s="1"/>
-      <c r="L482" s="36"/>
+      <c r="L482" s="38"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
@@ -14723,9 +14893,9 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
-      <c r="J483" s="1"/>
+      <c r="J483" s="38"/>
       <c r="K483" s="1"/>
-      <c r="L483" s="36"/>
+      <c r="L483" s="38"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
@@ -14745,9 +14915,9 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
       <c r="I484" s="1"/>
-      <c r="J484" s="1"/>
+      <c r="J484" s="38"/>
       <c r="K484" s="1"/>
-      <c r="L484" s="36"/>
+      <c r="L484" s="38"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
@@ -14767,9 +14937,9 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="I485" s="1"/>
-      <c r="J485" s="1"/>
+      <c r="J485" s="38"/>
       <c r="K485" s="1"/>
-      <c r="L485" s="36"/>
+      <c r="L485" s="38"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
@@ -14789,9 +14959,9 @@
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
       <c r="I486" s="1"/>
-      <c r="J486" s="1"/>
+      <c r="J486" s="38"/>
       <c r="K486" s="1"/>
-      <c r="L486" s="36"/>
+      <c r="L486" s="38"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/振华科技.xlsx
@@ -229,10 +229,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -266,14 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,26 +288,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,23 +311,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +341,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -365,15 +365,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,21 +404,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,13 +552,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +606,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,121 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +747,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,11 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,168 +848,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1555,6 +1555,9 @@
           <cell r="S8">
             <v>463.999999999999</v>
           </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="AF8" t="str">
@@ -2028,6 +2031,9 @@
           </cell>
           <cell r="S14">
             <v>566.999999999999</v>
+          </cell>
+          <cell r="T14">
+            <v>44543</v>
           </cell>
         </row>
         <row r="15">
@@ -2449,11 +2455,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG7"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2811,7 +2817,7 @@
         <f>IF(SUM($M$6:$M6)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="V6" s="9"/>
@@ -2900,7 +2906,7 @@
         <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="23" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="9"/>
